--- a/dat/B. TECH. I SEM DEC 18.xlsx
+++ b/dat/B. TECH. I SEM DEC 18.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jatin\Desktop\django\webresult\dat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jatin\Desktop\web d\react\live-result\public\dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9431601A-59A1-47A3-87FD-8C89A98EE7CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FF8B18-B0AA-41E5-AC29-5F0E79A2876A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="658">
   <si>
     <t>Roll No.</t>
   </si>
@@ -2375,7 +2375,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2807,29 +2807,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2852,25 +2834,46 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2879,13 +2882,13 @@
     <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4008,8 +4011,8 @@
   </sheetPr>
   <dimension ref="A1:AF70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C30" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4031,167 +4034,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="163"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="157"/>
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="157"/>
+      <c r="S1" s="157"/>
+      <c r="T1" s="157"/>
+      <c r="U1" s="157"/>
+      <c r="V1" s="157"/>
+      <c r="W1" s="157"/>
+      <c r="X1" s="157"/>
+      <c r="Y1" s="157"/>
+      <c r="Z1" s="157"/>
+      <c r="AA1" s="157"/>
+      <c r="AB1" s="157"/>
+      <c r="AC1" s="157"/>
+      <c r="AD1" s="157"/>
+      <c r="AE1" s="157"/>
+      <c r="AF1" s="157"/>
     </row>
     <row r="2" spans="1:32" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="163"/>
-      <c r="U2" s="163"/>
-      <c r="V2" s="163"/>
-      <c r="W2" s="163"/>
-      <c r="X2" s="163"/>
-      <c r="Y2" s="163"/>
-      <c r="Z2" s="163"/>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="163"/>
-      <c r="AD2" s="163"/>
-      <c r="AE2" s="163"/>
-      <c r="AF2" s="163"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="157"/>
+      <c r="AB2" s="157"/>
+      <c r="AC2" s="157"/>
+      <c r="AD2" s="157"/>
+      <c r="AE2" s="157"/>
+      <c r="AF2" s="157"/>
     </row>
     <row r="3" spans="1:32" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="158" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="164"/>
-      <c r="Q3" s="164"/>
-      <c r="R3" s="164"/>
-      <c r="S3" s="164"/>
-      <c r="T3" s="164"/>
-      <c r="U3" s="164"/>
-      <c r="V3" s="164"/>
-      <c r="W3" s="164"/>
-      <c r="X3" s="164"/>
-      <c r="Y3" s="164"/>
-      <c r="Z3" s="164"/>
-      <c r="AA3" s="164"/>
-      <c r="AB3" s="164"/>
-      <c r="AC3" s="164"/>
-      <c r="AD3" s="164"/>
-      <c r="AE3" s="164"/>
-      <c r="AF3" s="164"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="158"/>
+      <c r="Q3" s="158"/>
+      <c r="R3" s="158"/>
+      <c r="S3" s="158"/>
+      <c r="T3" s="158"/>
+      <c r="U3" s="158"/>
+      <c r="V3" s="158"/>
+      <c r="W3" s="158"/>
+      <c r="X3" s="158"/>
+      <c r="Y3" s="158"/>
+      <c r="Z3" s="158"/>
+      <c r="AA3" s="158"/>
+      <c r="AB3" s="158"/>
+      <c r="AC3" s="158"/>
+      <c r="AD3" s="158"/>
+      <c r="AE3" s="158"/>
+      <c r="AF3" s="158"/>
     </row>
     <row r="4" spans="1:32" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="157" t="s">
+      <c r="D4" s="154" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="158" t="s">
+      <c r="E4" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="158" t="s">
+      <c r="F4" s="166" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="160" t="s">
+      <c r="H4" s="153" t="s">
         <v>592</v>
       </c>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160" t="s">
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153" t="s">
         <v>593</v>
       </c>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160" t="s">
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="153" t="s">
         <v>594</v>
       </c>
-      <c r="O4" s="160"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="165" t="s">
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
+      <c r="Q4" s="159" t="s">
         <v>595</v>
       </c>
-      <c r="R4" s="166"/>
-      <c r="S4" s="167"/>
-      <c r="T4" s="160" t="s">
+      <c r="R4" s="160"/>
+      <c r="S4" s="161"/>
+      <c r="T4" s="153" t="s">
         <v>596</v>
       </c>
-      <c r="U4" s="160"/>
-      <c r="V4" s="160"/>
-      <c r="W4" s="165" t="s">
+      <c r="U4" s="153"/>
+      <c r="V4" s="153"/>
+      <c r="W4" s="159" t="s">
         <v>597</v>
       </c>
-      <c r="X4" s="166"/>
-      <c r="Y4" s="167"/>
-      <c r="Z4" s="160" t="s">
+      <c r="X4" s="160"/>
+      <c r="Y4" s="161"/>
+      <c r="Z4" s="153" t="s">
         <v>651</v>
       </c>
-      <c r="AA4" s="160"/>
-      <c r="AB4" s="160"/>
+      <c r="AA4" s="153"/>
+      <c r="AB4" s="153"/>
       <c r="AC4" s="151" t="s">
         <v>650</v>
       </c>
@@ -4206,12 +4209,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="154"/>
-      <c r="B5" s="156"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
+      <c r="A5" s="163"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
       <c r="G5" s="26"/>
       <c r="H5" s="13" t="s">
         <v>7</v>
@@ -4282,12 +4285,12 @@
       <c r="AF5" s="25"/>
     </row>
     <row r="6" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="154"/>
-      <c r="B6" s="156"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
+      <c r="A6" s="163"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
       <c r="G6" s="78" t="s">
         <v>2</v>
       </c>
@@ -4364,12 +4367,12 @@
       <c r="AF6" s="27"/>
     </row>
     <row r="7" spans="1:32" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="155"/>
-      <c r="B7" s="157"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
+      <c r="A7" s="164"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
       <c r="G7" s="28" t="s">
         <v>3</v>
       </c>
@@ -4638,13 +4641,13 @@
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="95">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="I10" s="115">
         <v>36</v>
       </c>
       <c r="J10" s="105">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="K10" s="115">
         <v>70</v>
@@ -4704,14 +4707,12 @@
         <v>40</v>
       </c>
       <c r="AD10" s="98">
-        <v>539</v>
-      </c>
-      <c r="AE10" s="126" t="s">
-        <v>606</v>
-      </c>
-      <c r="AF10" s="114" t="s">
-        <v>621</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="AE10" s="180" t="s">
+        <v>603</v>
+      </c>
+      <c r="AF10" s="114"/>
     </row>
     <row r="11" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57">
@@ -10217,6 +10218,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="T4:V4"/>
@@ -10228,11 +10234,6 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="Y8:Y68 AB8:AB68">
@@ -10329,170 +10330,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="79" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="170"/>
-      <c r="O1" s="170"/>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="170"/>
-      <c r="S1" s="170"/>
-      <c r="T1" s="170"/>
-      <c r="U1" s="170"/>
-      <c r="V1" s="170"/>
-      <c r="W1" s="170"/>
-      <c r="X1" s="170"/>
-      <c r="Y1" s="170"/>
-      <c r="Z1" s="170"/>
-      <c r="AA1" s="170"/>
-      <c r="AB1" s="170"/>
-      <c r="AC1" s="170"/>
-      <c r="AD1" s="170"/>
-      <c r="AE1" s="170"/>
-      <c r="AF1" s="170"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="168"/>
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="168"/>
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="168"/>
     </row>
     <row r="2" spans="1:32" s="79" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="170"/>
-      <c r="R2" s="170"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="170"/>
-      <c r="U2" s="170"/>
-      <c r="V2" s="170"/>
-      <c r="W2" s="170"/>
-      <c r="X2" s="170"/>
-      <c r="Y2" s="170"/>
-      <c r="Z2" s="170"/>
-      <c r="AA2" s="170"/>
-      <c r="AB2" s="170"/>
-      <c r="AC2" s="170"/>
-      <c r="AD2" s="170"/>
-      <c r="AE2" s="170"/>
-      <c r="AF2" s="170"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="168"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="168"/>
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="168"/>
+      <c r="AD2" s="168"/>
+      <c r="AE2" s="168"/>
+      <c r="AF2" s="168"/>
     </row>
     <row r="3" spans="1:32" s="79" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="170" t="s">
+      <c r="A3" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170"/>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="170"/>
-      <c r="AB3" s="170"/>
-      <c r="AC3" s="170"/>
-      <c r="AD3" s="170"/>
-      <c r="AE3" s="170"/>
-      <c r="AF3" s="170"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="168"/>
+      <c r="U3" s="168"/>
+      <c r="V3" s="168"/>
+      <c r="W3" s="168"/>
+      <c r="X3" s="168"/>
+      <c r="Y3" s="168"/>
+      <c r="Z3" s="168"/>
+      <c r="AA3" s="168"/>
+      <c r="AB3" s="168"/>
+      <c r="AC3" s="168"/>
+      <c r="AD3" s="168"/>
+      <c r="AE3" s="168"/>
+      <c r="AF3" s="168"/>
     </row>
     <row r="4" spans="1:32" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="165" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="158" t="s">
+      <c r="E4" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="158" t="s">
+      <c r="F4" s="166" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="160" t="s">
+      <c r="H4" s="153" t="s">
         <v>642</v>
       </c>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160" t="s">
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153" t="s">
         <v>589</v>
       </c>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160" t="s">
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="153" t="s">
         <v>602</v>
       </c>
-      <c r="O4" s="160"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="160" t="s">
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
+      <c r="Q4" s="153" t="s">
         <v>641</v>
       </c>
-      <c r="R4" s="160"/>
-      <c r="S4" s="160"/>
-      <c r="T4" s="160" t="s">
+      <c r="R4" s="153"/>
+      <c r="S4" s="153"/>
+      <c r="T4" s="153" t="s">
         <v>590</v>
       </c>
-      <c r="U4" s="160"/>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160" t="s">
+      <c r="U4" s="153"/>
+      <c r="V4" s="153"/>
+      <c r="W4" s="153" t="s">
         <v>643</v>
       </c>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="160"/>
-      <c r="Z4" s="160" t="s">
+      <c r="X4" s="153"/>
+      <c r="Y4" s="153"/>
+      <c r="Z4" s="153" t="s">
         <v>644</v>
       </c>
-      <c r="AA4" s="160"/>
-      <c r="AB4" s="160"/>
+      <c r="AA4" s="153"/>
+      <c r="AB4" s="153"/>
       <c r="AC4" s="145" t="s">
         <v>604</v>
       </c>
@@ -10507,12 +10508,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="156"/>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
+      <c r="A5" s="165"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
       <c r="G5" s="34"/>
       <c r="H5" s="11" t="s">
         <v>7</v>
@@ -10583,12 +10584,12 @@
       <c r="AF5" s="34"/>
     </row>
     <row r="6" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="156"/>
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
+      <c r="A6" s="165"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
       <c r="G6" s="36" t="s">
         <v>2</v>
       </c>
@@ -10665,12 +10666,12 @@
       <c r="AF6" s="52"/>
     </row>
     <row r="7" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="157"/>
-      <c r="B7" s="157"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
+      <c r="A7" s="154"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
       <c r="G7" s="37" t="s">
         <v>3</v>
       </c>
@@ -16050,16 +16051,21 @@
       <c r="AF64" s="14"/>
     </row>
     <row r="67" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="168" t="s">
+      <c r="B67" s="169" t="s">
         <v>640</v>
       </c>
-      <c r="C67" s="169"/>
-      <c r="D67" s="169"/>
-      <c r="E67" s="169"/>
-      <c r="F67" s="169"/>
+      <c r="C67" s="170"/>
+      <c r="D67" s="170"/>
+      <c r="E67" s="170"/>
+      <c r="F67" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A2:AF2"/>
     <mergeCell ref="A3:AF3"/>
@@ -16072,11 +16078,6 @@
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
   </mergeCells>
   <conditionalFormatting sqref="Q8:Q63">
     <cfRule type="cellIs" dxfId="52" priority="21" stopIfTrue="1" operator="lessThan">
@@ -16187,76 +16188,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="170"/>
-      <c r="O1" s="170"/>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="170"/>
-      <c r="S1" s="170"/>
-      <c r="T1" s="170"/>
-      <c r="U1" s="170"/>
-      <c r="V1" s="170"/>
-      <c r="W1" s="170"/>
-      <c r="X1" s="170"/>
-      <c r="Y1" s="170"/>
-      <c r="Z1" s="170"/>
-      <c r="AA1" s="170"/>
-      <c r="AB1" s="170"/>
-      <c r="AC1" s="170"/>
-      <c r="AD1" s="170"/>
-      <c r="AE1" s="170"/>
-      <c r="AF1" s="170"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="168"/>
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="168"/>
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="168"/>
     </row>
     <row r="2" spans="1:32" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="170"/>
-      <c r="R2" s="170"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="170"/>
-      <c r="U2" s="170"/>
-      <c r="V2" s="170"/>
-      <c r="W2" s="170"/>
-      <c r="X2" s="170"/>
-      <c r="Y2" s="170"/>
-      <c r="Z2" s="170"/>
-      <c r="AA2" s="170"/>
-      <c r="AB2" s="170"/>
-      <c r="AC2" s="170"/>
-      <c r="AD2" s="170"/>
-      <c r="AE2" s="170"/>
-      <c r="AF2" s="170"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="168"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="168"/>
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="168"/>
+      <c r="AD2" s="168"/>
+      <c r="AE2" s="168"/>
+      <c r="AF2" s="168"/>
     </row>
     <row r="3" spans="1:32" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="171" t="s">
@@ -16295,60 +16296,60 @@
       <c r="AF3" s="171"/>
     </row>
     <row r="4" spans="1:32" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="154" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="129"/>
-      <c r="D4" s="157" t="s">
+      <c r="D4" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="158" t="s">
+      <c r="E4" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="158" t="s">
+      <c r="F4" s="166" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="160" t="s">
+      <c r="H4" s="153" t="s">
         <v>592</v>
       </c>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160" t="s">
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153" t="s">
         <v>593</v>
       </c>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160" t="s">
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="153" t="s">
         <v>648</v>
       </c>
-      <c r="O4" s="160"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="165" t="s">
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
+      <c r="Q4" s="159" t="s">
         <v>595</v>
       </c>
-      <c r="R4" s="166"/>
-      <c r="S4" s="167"/>
-      <c r="T4" s="160" t="s">
+      <c r="R4" s="160"/>
+      <c r="S4" s="161"/>
+      <c r="T4" s="153" t="s">
         <v>596</v>
       </c>
-      <c r="U4" s="160"/>
-      <c r="V4" s="160"/>
-      <c r="W4" s="165" t="s">
+      <c r="U4" s="153"/>
+      <c r="V4" s="153"/>
+      <c r="W4" s="159" t="s">
         <v>597</v>
       </c>
-      <c r="X4" s="166"/>
-      <c r="Y4" s="167"/>
-      <c r="Z4" s="160" t="s">
+      <c r="X4" s="160"/>
+      <c r="Y4" s="161"/>
+      <c r="Z4" s="153" t="s">
         <v>610</v>
       </c>
-      <c r="AA4" s="160"/>
-      <c r="AB4" s="160"/>
+      <c r="AA4" s="153"/>
+      <c r="AB4" s="153"/>
       <c r="AC4" s="145" t="s">
         <v>605</v>
       </c>
@@ -16363,12 +16364,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="156"/>
-      <c r="B5" s="161"/>
+      <c r="A5" s="165"/>
+      <c r="B5" s="155"/>
       <c r="C5" s="130"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
       <c r="G5" s="82"/>
       <c r="H5" s="58" t="s">
         <v>7</v>
@@ -16439,12 +16440,12 @@
       <c r="AF5" s="25"/>
     </row>
     <row r="6" spans="1:32" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="156"/>
-      <c r="B6" s="161"/>
+      <c r="A6" s="165"/>
+      <c r="B6" s="155"/>
       <c r="C6" s="130"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
       <c r="G6" s="82" t="s">
         <v>2</v>
       </c>
@@ -16521,12 +16522,12 @@
       <c r="AF6" s="27"/>
     </row>
     <row r="7" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="157"/>
-      <c r="B7" s="162"/>
+      <c r="A7" s="154"/>
+      <c r="B7" s="156"/>
       <c r="C7" s="131"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
       <c r="G7" s="83" t="s">
         <v>3</v>
       </c>
@@ -21739,170 +21740,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="173"/>
-      <c r="U1" s="173"/>
-      <c r="V1" s="173"/>
-      <c r="W1" s="173"/>
-      <c r="X1" s="173"/>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="173"/>
-      <c r="AB1" s="173"/>
-      <c r="AC1" s="173"/>
-      <c r="AD1" s="173"/>
-      <c r="AE1" s="173"/>
-      <c r="AF1" s="173"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="172"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="172"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="172"/>
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
+      <c r="W1" s="172"/>
+      <c r="X1" s="172"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="172"/>
+      <c r="AA1" s="172"/>
+      <c r="AB1" s="172"/>
+      <c r="AC1" s="172"/>
+      <c r="AD1" s="172"/>
+      <c r="AE1" s="172"/>
+      <c r="AF1" s="172"/>
     </row>
     <row r="2" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="172" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="173"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="173"/>
-      <c r="U2" s="173"/>
-      <c r="V2" s="173"/>
-      <c r="W2" s="173"/>
-      <c r="X2" s="173"/>
-      <c r="Y2" s="173"/>
-      <c r="Z2" s="173"/>
-      <c r="AA2" s="173"/>
-      <c r="AB2" s="173"/>
-      <c r="AC2" s="173"/>
-      <c r="AD2" s="173"/>
-      <c r="AE2" s="173"/>
-      <c r="AF2" s="173"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="172"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="172"/>
+      <c r="S2" s="172"/>
+      <c r="T2" s="172"/>
+      <c r="U2" s="172"/>
+      <c r="V2" s="172"/>
+      <c r="W2" s="172"/>
+      <c r="X2" s="172"/>
+      <c r="Y2" s="172"/>
+      <c r="Z2" s="172"/>
+      <c r="AA2" s="172"/>
+      <c r="AB2" s="172"/>
+      <c r="AC2" s="172"/>
+      <c r="AD2" s="172"/>
+      <c r="AE2" s="172"/>
+      <c r="AF2" s="172"/>
     </row>
     <row r="3" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="174"/>
-      <c r="L3" s="174"/>
-      <c r="M3" s="174"/>
-      <c r="N3" s="174"/>
-      <c r="O3" s="174"/>
-      <c r="P3" s="174"/>
-      <c r="Q3" s="174"/>
-      <c r="R3" s="174"/>
-      <c r="S3" s="174"/>
-      <c r="T3" s="174"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
-      <c r="W3" s="174"/>
-      <c r="X3" s="174"/>
-      <c r="Y3" s="174"/>
-      <c r="Z3" s="174"/>
-      <c r="AA3" s="174"/>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="174"/>
-      <c r="AD3" s="174"/>
-      <c r="AE3" s="174"/>
-      <c r="AF3" s="174"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="173"/>
+      <c r="M3" s="173"/>
+      <c r="N3" s="173"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="173"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="173"/>
+      <c r="T3" s="173"/>
+      <c r="U3" s="173"/>
+      <c r="V3" s="173"/>
+      <c r="W3" s="173"/>
+      <c r="X3" s="173"/>
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="173"/>
+      <c r="AB3" s="173"/>
+      <c r="AC3" s="173"/>
+      <c r="AD3" s="173"/>
+      <c r="AE3" s="173"/>
+      <c r="AF3" s="173"/>
     </row>
     <row r="4" spans="1:32" ht="147.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="165" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="158" t="s">
+      <c r="E4" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="158" t="s">
+      <c r="F4" s="166" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="160" t="s">
+      <c r="H4" s="153" t="s">
         <v>642</v>
       </c>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160" t="s">
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153" t="s">
         <v>589</v>
       </c>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160" t="s">
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="153" t="s">
         <v>602</v>
       </c>
-      <c r="O4" s="160"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="160" t="s">
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
+      <c r="Q4" s="153" t="s">
         <v>645</v>
       </c>
-      <c r="R4" s="160"/>
-      <c r="S4" s="160"/>
-      <c r="T4" s="160" t="s">
+      <c r="R4" s="153"/>
+      <c r="S4" s="153"/>
+      <c r="T4" s="153" t="s">
         <v>590</v>
       </c>
-      <c r="U4" s="160"/>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160" t="s">
+      <c r="U4" s="153"/>
+      <c r="V4" s="153"/>
+      <c r="W4" s="153" t="s">
         <v>649</v>
       </c>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="160"/>
-      <c r="Z4" s="160" t="s">
+      <c r="X4" s="153"/>
+      <c r="Y4" s="153"/>
+      <c r="Z4" s="153" t="s">
         <v>591</v>
       </c>
-      <c r="AA4" s="160"/>
-      <c r="AB4" s="160"/>
+      <c r="AA4" s="153"/>
+      <c r="AB4" s="153"/>
       <c r="AC4" s="145" t="s">
         <v>604</v>
       </c>
@@ -21917,12 +21918,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="156"/>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
+      <c r="A5" s="165"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
       <c r="G5" s="25"/>
       <c r="H5" s="11" t="s">
         <v>7</v>
@@ -21993,12 +21994,12 @@
       <c r="AF5" s="25"/>
     </row>
     <row r="6" spans="1:32" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="156"/>
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
+      <c r="A6" s="165"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
       <c r="G6" s="25" t="s">
         <v>2</v>
       </c>
@@ -22075,12 +22076,12 @@
       <c r="AF6" s="27"/>
     </row>
     <row r="7" spans="1:32" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="157"/>
-      <c r="B7" s="157"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
+      <c r="A7" s="154"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
       <c r="G7" s="41" t="s">
         <v>3</v>
       </c>
@@ -27907,23 +27908,16 @@
       <c r="AF68" s="117"/>
     </row>
     <row r="70" spans="1:32" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="172" t="s">
+      <c r="B70" s="174" t="s">
         <v>640</v>
       </c>
-      <c r="C70" s="172"/>
-      <c r="D70" s="172"/>
-      <c r="E70" s="172"/>
-      <c r="F70" s="172"/>
+      <c r="C70" s="174"/>
+      <c r="D70" s="174"/>
+      <c r="E70" s="174"/>
+      <c r="F70" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:AF2"/>
-    <mergeCell ref="A3:AF3"/>
     <mergeCell ref="B70:F70"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="Z4:AB4"/>
@@ -27934,6 +27928,13 @@
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="C4:C7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:AF2"/>
+    <mergeCell ref="A3:AF3"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J68 M8:M68 P8:P68">
     <cfRule type="cellIs" dxfId="27" priority="15" stopIfTrue="1" operator="lessThan">
@@ -28011,75 +28012,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="157"/>
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="157"/>
+      <c r="S1" s="157"/>
+      <c r="T1" s="157"/>
+      <c r="U1" s="157"/>
+      <c r="V1" s="157"/>
+      <c r="W1" s="157"/>
+      <c r="X1" s="157"/>
+      <c r="Y1" s="157"/>
+      <c r="Z1" s="157"/>
+      <c r="AA1" s="157"/>
+      <c r="AB1" s="157"/>
+      <c r="AC1" s="157"/>
+      <c r="AD1" s="157"/>
+      <c r="AE1" s="157"/>
       <c r="AF1" s="10"/>
     </row>
     <row r="2" spans="1:32" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="163"/>
-      <c r="U2" s="163"/>
-      <c r="V2" s="163"/>
-      <c r="W2" s="163"/>
-      <c r="X2" s="163"/>
-      <c r="Y2" s="163"/>
-      <c r="Z2" s="163"/>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="163"/>
-      <c r="AD2" s="163"/>
-      <c r="AE2" s="163"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="157"/>
+      <c r="AB2" s="157"/>
+      <c r="AC2" s="157"/>
+      <c r="AD2" s="157"/>
+      <c r="AE2" s="157"/>
       <c r="AF2" s="10"/>
     </row>
     <row r="3" spans="1:32" ht="71" customHeight="1" x14ac:dyDescent="0.25">
@@ -28119,62 +28120,62 @@
       <c r="AF3" s="10"/>
     </row>
     <row r="4" spans="1:32" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="177" t="s">
+      <c r="B4" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="177" t="s">
+      <c r="C4" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="177" t="s">
+      <c r="D4" s="175" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="175" t="s">
+      <c r="E4" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="175" t="s">
+      <c r="F4" s="176" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="160" t="s">
+      <c r="H4" s="153" t="s">
         <v>592</v>
       </c>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160" t="s">
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153" t="s">
         <v>593</v>
       </c>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160" t="s">
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="153" t="s">
         <v>594</v>
       </c>
-      <c r="O4" s="160"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="165" t="s">
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
+      <c r="Q4" s="159" t="s">
         <v>595</v>
       </c>
-      <c r="R4" s="166"/>
-      <c r="S4" s="167"/>
-      <c r="T4" s="160" t="s">
+      <c r="R4" s="160"/>
+      <c r="S4" s="161"/>
+      <c r="T4" s="153" t="s">
         <v>596</v>
       </c>
-      <c r="U4" s="160"/>
-      <c r="V4" s="160"/>
-      <c r="W4" s="165" t="s">
+      <c r="U4" s="153"/>
+      <c r="V4" s="153"/>
+      <c r="W4" s="159" t="s">
         <v>597</v>
       </c>
-      <c r="X4" s="166"/>
-      <c r="Y4" s="167"/>
-      <c r="Z4" s="160" t="s">
+      <c r="X4" s="160"/>
+      <c r="Y4" s="161"/>
+      <c r="Z4" s="153" t="s">
         <v>610</v>
       </c>
-      <c r="AA4" s="160"/>
-      <c r="AB4" s="160"/>
+      <c r="AA4" s="153"/>
+      <c r="AB4" s="153"/>
       <c r="AC4" s="151" t="s">
         <v>653</v>
       </c>
@@ -28189,12 +28190,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="177"/>
-      <c r="B5" s="177"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
+      <c r="A5" s="175"/>
+      <c r="B5" s="175"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
       <c r="G5" s="4"/>
       <c r="H5" s="58" t="s">
         <v>7</v>
@@ -28265,12 +28266,12 @@
       <c r="AF5" s="75"/>
     </row>
     <row r="6" spans="1:32" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="177"/>
-      <c r="B6" s="177"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="175"/>
+      <c r="A6" s="175"/>
+      <c r="B6" s="175"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
       <c r="G6" s="5" t="s">
         <v>2</v>
       </c>
@@ -28347,12 +28348,12 @@
       <c r="AF6" s="76"/>
     </row>
     <row r="7" spans="1:32" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="153"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
       <c r="G7" s="8" t="s">
         <v>3</v>
       </c>
@@ -28522,6 +28523,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="A2:AE2"/>
     <mergeCell ref="A3:AE3"/>
@@ -28533,11 +28539,6 @@
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="T4:V4"/>
   </mergeCells>
   <conditionalFormatting sqref="Y8 AB8">
@@ -28603,170 +28604,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="157"/>
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="157"/>
+      <c r="S1" s="157"/>
+      <c r="T1" s="157"/>
+      <c r="U1" s="157"/>
+      <c r="V1" s="157"/>
+      <c r="W1" s="157"/>
+      <c r="X1" s="157"/>
+      <c r="Y1" s="157"/>
+      <c r="Z1" s="157"/>
+      <c r="AA1" s="157"/>
+      <c r="AB1" s="157"/>
+      <c r="AC1" s="157"/>
+      <c r="AD1" s="157"/>
+      <c r="AE1" s="157"/>
       <c r="AF1" s="10"/>
     </row>
     <row r="2" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="163"/>
-      <c r="U2" s="163"/>
-      <c r="V2" s="163"/>
-      <c r="W2" s="163"/>
-      <c r="X2" s="163"/>
-      <c r="Y2" s="163"/>
-      <c r="Z2" s="163"/>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="163"/>
-      <c r="AD2" s="163"/>
-      <c r="AE2" s="163"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="157"/>
+      <c r="AB2" s="157"/>
+      <c r="AC2" s="157"/>
+      <c r="AD2" s="157"/>
+      <c r="AE2" s="157"/>
       <c r="AF2" s="10"/>
     </row>
     <row r="3" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="163"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="163"/>
-      <c r="U3" s="163"/>
-      <c r="V3" s="163"/>
-      <c r="W3" s="163"/>
-      <c r="X3" s="163"/>
-      <c r="Y3" s="163"/>
-      <c r="Z3" s="163"/>
-      <c r="AA3" s="163"/>
-      <c r="AB3" s="163"/>
-      <c r="AC3" s="163"/>
-      <c r="AD3" s="163"/>
-      <c r="AE3" s="163"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="157"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="157"/>
+      <c r="P3" s="157"/>
+      <c r="Q3" s="157"/>
+      <c r="R3" s="157"/>
+      <c r="S3" s="157"/>
+      <c r="T3" s="157"/>
+      <c r="U3" s="157"/>
+      <c r="V3" s="157"/>
+      <c r="W3" s="157"/>
+      <c r="X3" s="157"/>
+      <c r="Y3" s="157"/>
+      <c r="Z3" s="157"/>
+      <c r="AA3" s="157"/>
+      <c r="AB3" s="157"/>
+      <c r="AC3" s="157"/>
+      <c r="AD3" s="157"/>
+      <c r="AE3" s="157"/>
       <c r="AF3" s="10"/>
     </row>
     <row r="4" spans="1:32" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="177" t="s">
+      <c r="B4" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="177" t="s">
+      <c r="C4" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="177" t="s">
+      <c r="D4" s="175" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="175" t="s">
+      <c r="E4" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="175" t="s">
+      <c r="F4" s="176" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="160" t="s">
+      <c r="H4" s="153" t="s">
         <v>635</v>
       </c>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160" t="s">
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153" t="s">
         <v>589</v>
       </c>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160" t="s">
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="153" t="s">
         <v>602</v>
       </c>
-      <c r="O4" s="160"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="160" t="s">
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
+      <c r="Q4" s="153" t="s">
         <v>633</v>
       </c>
-      <c r="R4" s="160"/>
-      <c r="S4" s="160"/>
-      <c r="T4" s="160" t="s">
+      <c r="R4" s="153"/>
+      <c r="S4" s="153"/>
+      <c r="T4" s="153" t="s">
         <v>590</v>
       </c>
-      <c r="U4" s="160"/>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160" t="s">
+      <c r="U4" s="153"/>
+      <c r="V4" s="153"/>
+      <c r="W4" s="153" t="s">
         <v>636</v>
       </c>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="160"/>
-      <c r="Z4" s="160" t="s">
+      <c r="X4" s="153"/>
+      <c r="Y4" s="153"/>
+      <c r="Z4" s="153" t="s">
         <v>634</v>
       </c>
-      <c r="AA4" s="160"/>
-      <c r="AB4" s="160"/>
+      <c r="AA4" s="153"/>
+      <c r="AB4" s="153"/>
       <c r="AC4" s="148" t="s">
         <v>637</v>
       </c>
@@ -28781,12 +28782,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="177"/>
-      <c r="B5" s="177"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
+      <c r="A5" s="175"/>
+      <c r="B5" s="175"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
       <c r="G5" s="7"/>
       <c r="H5" s="11" t="s">
         <v>7</v>
@@ -28857,12 +28858,12 @@
       <c r="AF5" s="51"/>
     </row>
     <row r="6" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="177"/>
-      <c r="B6" s="177"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="175"/>
+      <c r="A6" s="175"/>
+      <c r="B6" s="175"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
       <c r="G6" s="5" t="s">
         <v>2</v>
       </c>
@@ -28939,12 +28940,12 @@
       <c r="AF6" s="39"/>
     </row>
     <row r="7" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="177"/>
-      <c r="B7" s="177"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="175"/>
+      <c r="A7" s="175"/>
+      <c r="B7" s="175"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
       <c r="G7" s="8" t="s">
         <v>3</v>
       </c>
@@ -34024,6 +34025,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="C4:C7"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="A2:AE2"/>
     <mergeCell ref="A3:AE3"/>
@@ -34033,14 +34042,6 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="C4:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J60">
     <cfRule type="cellIs" dxfId="13" priority="15" stopIfTrue="1" operator="lessThan">

--- a/dat/B. TECH. I SEM DEC 18.xlsx
+++ b/dat/B. TECH. I SEM DEC 18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jatin\Desktop\web d\react\live-result\public\dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FF8B18-B0AA-41E5-AC29-5F0E79A2876A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B693D963-8B9C-4C79-B42E-6BA2F990150A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="659">
   <si>
     <t>Roll No.</t>
   </si>
@@ -2008,6 +2008,9 @@
   </si>
   <si>
     <t>Mukesh Bahuguna</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -2807,11 +2810,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2834,35 +2858,20 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2870,8 +2879,8 @@
     <xf numFmtId="1" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2882,13 +2891,7 @@
     <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4011,8 +4014,8 @@
   </sheetPr>
   <dimension ref="A1:AF70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10"/>
+    <sheetView tabSelected="1" topLeftCell="G5" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4034,167 +4037,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="157"/>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="157"/>
-      <c r="S1" s="157"/>
-      <c r="T1" s="157"/>
-      <c r="U1" s="157"/>
-      <c r="V1" s="157"/>
-      <c r="W1" s="157"/>
-      <c r="X1" s="157"/>
-      <c r="Y1" s="157"/>
-      <c r="Z1" s="157"/>
-      <c r="AA1" s="157"/>
-      <c r="AB1" s="157"/>
-      <c r="AC1" s="157"/>
-      <c r="AD1" s="157"/>
-      <c r="AE1" s="157"/>
-      <c r="AF1" s="157"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="164"/>
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="164"/>
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="164"/>
+      <c r="AD1" s="164"/>
+      <c r="AE1" s="164"/>
+      <c r="AF1" s="164"/>
     </row>
     <row r="2" spans="1:32" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="157"/>
-      <c r="AB2" s="157"/>
-      <c r="AC2" s="157"/>
-      <c r="AD2" s="157"/>
-      <c r="AE2" s="157"/>
-      <c r="AF2" s="157"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="164"/>
+      <c r="S2" s="164"/>
+      <c r="T2" s="164"/>
+      <c r="U2" s="164"/>
+      <c r="V2" s="164"/>
+      <c r="W2" s="164"/>
+      <c r="X2" s="164"/>
+      <c r="Y2" s="164"/>
+      <c r="Z2" s="164"/>
+      <c r="AA2" s="164"/>
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="164"/>
+      <c r="AD2" s="164"/>
+      <c r="AE2" s="164"/>
+      <c r="AF2" s="164"/>
     </row>
     <row r="3" spans="1:32" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="158" t="s">
+      <c r="B3" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="158"/>
-      <c r="Q3" s="158"/>
-      <c r="R3" s="158"/>
-      <c r="S3" s="158"/>
-      <c r="T3" s="158"/>
-      <c r="U3" s="158"/>
-      <c r="V3" s="158"/>
-      <c r="W3" s="158"/>
-      <c r="X3" s="158"/>
-      <c r="Y3" s="158"/>
-      <c r="Z3" s="158"/>
-      <c r="AA3" s="158"/>
-      <c r="AB3" s="158"/>
-      <c r="AC3" s="158"/>
-      <c r="AD3" s="158"/>
-      <c r="AE3" s="158"/>
-      <c r="AF3" s="158"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="165"/>
+      <c r="O3" s="165"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="165"/>
+      <c r="S3" s="165"/>
+      <c r="T3" s="165"/>
+      <c r="U3" s="165"/>
+      <c r="V3" s="165"/>
+      <c r="W3" s="165"/>
+      <c r="X3" s="165"/>
+      <c r="Y3" s="165"/>
+      <c r="Z3" s="165"/>
+      <c r="AA3" s="165"/>
+      <c r="AB3" s="165"/>
+      <c r="AC3" s="165"/>
+      <c r="AD3" s="165"/>
+      <c r="AE3" s="165"/>
+      <c r="AF3" s="165"/>
     </row>
     <row r="4" spans="1:32" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="162" t="s">
+      <c r="A4" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="158" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="166" t="s">
+      <c r="E4" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="166" t="s">
+      <c r="F4" s="159" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="153" t="s">
+      <c r="H4" s="161" t="s">
         <v>592</v>
       </c>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153" t="s">
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161" t="s">
         <v>593</v>
       </c>
-      <c r="L4" s="153"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="153" t="s">
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161" t="s">
         <v>594</v>
       </c>
-      <c r="O4" s="153"/>
-      <c r="P4" s="153"/>
-      <c r="Q4" s="159" t="s">
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="166" t="s">
         <v>595</v>
       </c>
-      <c r="R4" s="160"/>
-      <c r="S4" s="161"/>
-      <c r="T4" s="153" t="s">
+      <c r="R4" s="167"/>
+      <c r="S4" s="168"/>
+      <c r="T4" s="161" t="s">
         <v>596</v>
       </c>
-      <c r="U4" s="153"/>
-      <c r="V4" s="153"/>
-      <c r="W4" s="159" t="s">
+      <c r="U4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="166" t="s">
         <v>597</v>
       </c>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="161"/>
-      <c r="Z4" s="153" t="s">
+      <c r="X4" s="167"/>
+      <c r="Y4" s="168"/>
+      <c r="Z4" s="161" t="s">
         <v>651</v>
       </c>
-      <c r="AA4" s="153"/>
-      <c r="AB4" s="153"/>
+      <c r="AA4" s="161"/>
+      <c r="AB4" s="161"/>
       <c r="AC4" s="151" t="s">
         <v>650</v>
       </c>
@@ -4209,12 +4212,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="163"/>
-      <c r="B5" s="165"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
+      <c r="A5" s="155"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
       <c r="G5" s="26"/>
       <c r="H5" s="13" t="s">
         <v>7</v>
@@ -4285,12 +4288,12 @@
       <c r="AF5" s="25"/>
     </row>
     <row r="6" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="163"/>
-      <c r="B6" s="165"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
+      <c r="A6" s="155"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
       <c r="G6" s="78" t="s">
         <v>2</v>
       </c>
@@ -4367,12 +4370,12 @@
       <c r="AF6" s="27"/>
     </row>
     <row r="7" spans="1:32" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="164"/>
-      <c r="B7" s="154"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
+      <c r="A7" s="156"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
       <c r="G7" s="28" t="s">
         <v>3</v>
       </c>
@@ -4709,10 +4712,12 @@
       <c r="AD10" s="98">
         <v>572</v>
       </c>
-      <c r="AE10" s="180" t="s">
+      <c r="AE10" s="153" t="s">
         <v>603</v>
       </c>
-      <c r="AF10" s="114"/>
+      <c r="AF10" s="114" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="11" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57">
@@ -8887,13 +8892,13 @@
       </c>
       <c r="G55" s="32"/>
       <c r="H55" s="95">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I55" s="115">
         <v>47</v>
       </c>
       <c r="J55" s="105">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="K55" s="115">
         <v>48</v>
@@ -8955,8 +8960,8 @@
       <c r="AD55" s="98">
         <v>556</v>
       </c>
-      <c r="AE55" s="126" t="s">
-        <v>606</v>
+      <c r="AE55" s="153" t="s">
+        <v>658</v>
       </c>
       <c r="AF55" s="114" t="s">
         <v>621</v>
@@ -10218,11 +10223,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="T4:V4"/>
@@ -10234,6 +10234,11 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="Y8:Y68 AB8:AB68">
@@ -10330,170 +10335,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="79" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="168"/>
-      <c r="AA1" s="168"/>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="168"/>
-      <c r="AD1" s="168"/>
-      <c r="AE1" s="168"/>
-      <c r="AF1" s="168"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="171"/>
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="171"/>
     </row>
     <row r="2" spans="1:32" s="79" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="168"/>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="168"/>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="168"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="171"/>
+      <c r="AA2" s="171"/>
+      <c r="AB2" s="171"/>
+      <c r="AC2" s="171"/>
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="171"/>
+      <c r="AF2" s="171"/>
     </row>
     <row r="3" spans="1:32" s="79" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="171" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="168"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="168"/>
-      <c r="V3" s="168"/>
-      <c r="W3" s="168"/>
-      <c r="X3" s="168"/>
-      <c r="Y3" s="168"/>
-      <c r="Z3" s="168"/>
-      <c r="AA3" s="168"/>
-      <c r="AB3" s="168"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="168"/>
-      <c r="AE3" s="168"/>
-      <c r="AF3" s="168"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171"/>
+      <c r="N3" s="171"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="171"/>
+      <c r="T3" s="171"/>
+      <c r="U3" s="171"/>
+      <c r="V3" s="171"/>
+      <c r="W3" s="171"/>
+      <c r="X3" s="171"/>
+      <c r="Y3" s="171"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="171"/>
+      <c r="AB3" s="171"/>
+      <c r="AC3" s="171"/>
+      <c r="AD3" s="171"/>
+      <c r="AE3" s="171"/>
+      <c r="AF3" s="171"/>
     </row>
     <row r="4" spans="1:32" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="165" t="s">
+      <c r="A4" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="165" t="s">
+      <c r="C4" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="165" t="s">
+      <c r="D4" s="157" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="166" t="s">
+      <c r="E4" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="166" t="s">
+      <c r="F4" s="159" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="153" t="s">
+      <c r="H4" s="161" t="s">
         <v>642</v>
       </c>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153" t="s">
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161" t="s">
         <v>589</v>
       </c>
-      <c r="L4" s="153"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="153" t="s">
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161" t="s">
         <v>602</v>
       </c>
-      <c r="O4" s="153"/>
-      <c r="P4" s="153"/>
-      <c r="Q4" s="153" t="s">
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161" t="s">
         <v>641</v>
       </c>
-      <c r="R4" s="153"/>
-      <c r="S4" s="153"/>
-      <c r="T4" s="153" t="s">
+      <c r="R4" s="161"/>
+      <c r="S4" s="161"/>
+      <c r="T4" s="161" t="s">
         <v>590</v>
       </c>
-      <c r="U4" s="153"/>
-      <c r="V4" s="153"/>
-      <c r="W4" s="153" t="s">
+      <c r="U4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161" t="s">
         <v>643</v>
       </c>
-      <c r="X4" s="153"/>
-      <c r="Y4" s="153"/>
-      <c r="Z4" s="153" t="s">
+      <c r="X4" s="161"/>
+      <c r="Y4" s="161"/>
+      <c r="Z4" s="161" t="s">
         <v>644</v>
       </c>
-      <c r="AA4" s="153"/>
-      <c r="AB4" s="153"/>
+      <c r="AA4" s="161"/>
+      <c r="AB4" s="161"/>
       <c r="AC4" s="145" t="s">
         <v>604</v>
       </c>
@@ -10508,12 +10513,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="165"/>
-      <c r="B5" s="165"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
+      <c r="A5" s="157"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
       <c r="G5" s="34"/>
       <c r="H5" s="11" t="s">
         <v>7</v>
@@ -10584,12 +10589,12 @@
       <c r="AF5" s="34"/>
     </row>
     <row r="6" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="165"/>
-      <c r="B6" s="165"/>
-      <c r="C6" s="165"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
+      <c r="A6" s="157"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
       <c r="G6" s="36" t="s">
         <v>2</v>
       </c>
@@ -10666,12 +10671,12 @@
       <c r="AF6" s="52"/>
     </row>
     <row r="7" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="154"/>
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
+      <c r="A7" s="158"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
       <c r="G7" s="37" t="s">
         <v>3</v>
       </c>
@@ -16061,11 +16066,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A2:AF2"/>
     <mergeCell ref="A3:AF3"/>
@@ -16078,6 +16078,11 @@
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
   </mergeCells>
   <conditionalFormatting sqref="Q8:Q63">
     <cfRule type="cellIs" dxfId="52" priority="21" stopIfTrue="1" operator="lessThan">
@@ -16188,168 +16193,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="168"/>
-      <c r="AA1" s="168"/>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="168"/>
-      <c r="AD1" s="168"/>
-      <c r="AE1" s="168"/>
-      <c r="AF1" s="168"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="171"/>
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="171"/>
     </row>
     <row r="2" spans="1:32" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="168"/>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="168"/>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="168"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="171"/>
+      <c r="AA2" s="171"/>
+      <c r="AB2" s="171"/>
+      <c r="AC2" s="171"/>
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="171"/>
+      <c r="AF2" s="171"/>
     </row>
     <row r="3" spans="1:32" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="172" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="171"/>
-      <c r="J3" s="171"/>
-      <c r="K3" s="171"/>
-      <c r="L3" s="171"/>
-      <c r="M3" s="171"/>
-      <c r="N3" s="171"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="171"/>
-      <c r="T3" s="171"/>
-      <c r="U3" s="171"/>
-      <c r="V3" s="171"/>
-      <c r="W3" s="171"/>
-      <c r="X3" s="171"/>
-      <c r="Y3" s="171"/>
-      <c r="Z3" s="171"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="171"/>
-      <c r="AC3" s="171"/>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="171"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="172"/>
+      <c r="N3" s="172"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="172"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="172"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="172"/>
+      <c r="AC3" s="172"/>
+      <c r="AD3" s="172"/>
+      <c r="AE3" s="172"/>
+      <c r="AF3" s="172"/>
     </row>
     <row r="4" spans="1:32" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="165" t="s">
+      <c r="A4" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="158" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="129"/>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="166" t="s">
+      <c r="E4" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="166" t="s">
+      <c r="F4" s="159" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="153" t="s">
+      <c r="H4" s="161" t="s">
         <v>592</v>
       </c>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153" t="s">
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161" t="s">
         <v>593</v>
       </c>
-      <c r="L4" s="153"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="153" t="s">
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161" t="s">
         <v>648</v>
       </c>
-      <c r="O4" s="153"/>
-      <c r="P4" s="153"/>
-      <c r="Q4" s="159" t="s">
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="166" t="s">
         <v>595</v>
       </c>
-      <c r="R4" s="160"/>
-      <c r="S4" s="161"/>
-      <c r="T4" s="153" t="s">
+      <c r="R4" s="167"/>
+      <c r="S4" s="168"/>
+      <c r="T4" s="161" t="s">
         <v>596</v>
       </c>
-      <c r="U4" s="153"/>
-      <c r="V4" s="153"/>
-      <c r="W4" s="159" t="s">
+      <c r="U4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="166" t="s">
         <v>597</v>
       </c>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="161"/>
-      <c r="Z4" s="153" t="s">
+      <c r="X4" s="167"/>
+      <c r="Y4" s="168"/>
+      <c r="Z4" s="161" t="s">
         <v>610</v>
       </c>
-      <c r="AA4" s="153"/>
-      <c r="AB4" s="153"/>
+      <c r="AA4" s="161"/>
+      <c r="AB4" s="161"/>
       <c r="AC4" s="145" t="s">
         <v>605</v>
       </c>
@@ -16364,12 +16369,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="165"/>
-      <c r="B5" s="155"/>
+      <c r="A5" s="157"/>
+      <c r="B5" s="162"/>
       <c r="C5" s="130"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
       <c r="G5" s="82"/>
       <c r="H5" s="58" t="s">
         <v>7</v>
@@ -16440,12 +16445,12 @@
       <c r="AF5" s="25"/>
     </row>
     <row r="6" spans="1:32" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="165"/>
-      <c r="B6" s="155"/>
+      <c r="A6" s="157"/>
+      <c r="B6" s="162"/>
       <c r="C6" s="130"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
       <c r="G6" s="82" t="s">
         <v>2</v>
       </c>
@@ -16522,12 +16527,12 @@
       <c r="AF6" s="27"/>
     </row>
     <row r="7" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="154"/>
-      <c r="B7" s="156"/>
+      <c r="A7" s="158"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="131"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
       <c r="G7" s="83" t="s">
         <v>3</v>
       </c>
@@ -21740,170 +21745,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="172"/>
-      <c r="T1" s="172"/>
-      <c r="U1" s="172"/>
-      <c r="V1" s="172"/>
-      <c r="W1" s="172"/>
-      <c r="X1" s="172"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="172"/>
-      <c r="AA1" s="172"/>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="172"/>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="172"/>
-      <c r="AF1" s="172"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="174"/>
+      <c r="O1" s="174"/>
+      <c r="P1" s="174"/>
+      <c r="Q1" s="174"/>
+      <c r="R1" s="174"/>
+      <c r="S1" s="174"/>
+      <c r="T1" s="174"/>
+      <c r="U1" s="174"/>
+      <c r="V1" s="174"/>
+      <c r="W1" s="174"/>
+      <c r="X1" s="174"/>
+      <c r="Y1" s="174"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="174"/>
+      <c r="AB1" s="174"/>
+      <c r="AC1" s="174"/>
+      <c r="AD1" s="174"/>
+      <c r="AE1" s="174"/>
+      <c r="AF1" s="174"/>
     </row>
     <row r="2" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="172"/>
-      <c r="S2" s="172"/>
-      <c r="T2" s="172"/>
-      <c r="U2" s="172"/>
-      <c r="V2" s="172"/>
-      <c r="W2" s="172"/>
-      <c r="X2" s="172"/>
-      <c r="Y2" s="172"/>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="172"/>
-      <c r="AB2" s="172"/>
-      <c r="AC2" s="172"/>
-      <c r="AD2" s="172"/>
-      <c r="AE2" s="172"/>
-      <c r="AF2" s="172"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="174"/>
+      <c r="Y2" s="174"/>
+      <c r="Z2" s="174"/>
+      <c r="AA2" s="174"/>
+      <c r="AB2" s="174"/>
+      <c r="AC2" s="174"/>
+      <c r="AD2" s="174"/>
+      <c r="AE2" s="174"/>
+      <c r="AF2" s="174"/>
     </row>
     <row r="3" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="175" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="173"/>
-      <c r="P3" s="173"/>
-      <c r="Q3" s="173"/>
-      <c r="R3" s="173"/>
-      <c r="S3" s="173"/>
-      <c r="T3" s="173"/>
-      <c r="U3" s="173"/>
-      <c r="V3" s="173"/>
-      <c r="W3" s="173"/>
-      <c r="X3" s="173"/>
-      <c r="Y3" s="173"/>
-      <c r="Z3" s="173"/>
-      <c r="AA3" s="173"/>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="173"/>
-      <c r="AD3" s="173"/>
-      <c r="AE3" s="173"/>
-      <c r="AF3" s="173"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="175"/>
+      <c r="S3" s="175"/>
+      <c r="T3" s="175"/>
+      <c r="U3" s="175"/>
+      <c r="V3" s="175"/>
+      <c r="W3" s="175"/>
+      <c r="X3" s="175"/>
+      <c r="Y3" s="175"/>
+      <c r="Z3" s="175"/>
+      <c r="AA3" s="175"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="175"/>
+      <c r="AD3" s="175"/>
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="175"/>
     </row>
     <row r="4" spans="1:32" ht="147.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="165" t="s">
+      <c r="A4" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="165" t="s">
+      <c r="C4" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="165" t="s">
+      <c r="D4" s="157" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="166" t="s">
+      <c r="E4" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="166" t="s">
+      <c r="F4" s="159" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="153" t="s">
+      <c r="H4" s="161" t="s">
         <v>642</v>
       </c>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153" t="s">
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161" t="s">
         <v>589</v>
       </c>
-      <c r="L4" s="153"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="153" t="s">
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161" t="s">
         <v>602</v>
       </c>
-      <c r="O4" s="153"/>
-      <c r="P4" s="153"/>
-      <c r="Q4" s="153" t="s">
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161" t="s">
         <v>645</v>
       </c>
-      <c r="R4" s="153"/>
-      <c r="S4" s="153"/>
-      <c r="T4" s="153" t="s">
+      <c r="R4" s="161"/>
+      <c r="S4" s="161"/>
+      <c r="T4" s="161" t="s">
         <v>590</v>
       </c>
-      <c r="U4" s="153"/>
-      <c r="V4" s="153"/>
-      <c r="W4" s="153" t="s">
+      <c r="U4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161" t="s">
         <v>649</v>
       </c>
-      <c r="X4" s="153"/>
-      <c r="Y4" s="153"/>
-      <c r="Z4" s="153" t="s">
+      <c r="X4" s="161"/>
+      <c r="Y4" s="161"/>
+      <c r="Z4" s="161" t="s">
         <v>591</v>
       </c>
-      <c r="AA4" s="153"/>
-      <c r="AB4" s="153"/>
+      <c r="AA4" s="161"/>
+      <c r="AB4" s="161"/>
       <c r="AC4" s="145" t="s">
         <v>604</v>
       </c>
@@ -21918,12 +21923,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="165"/>
-      <c r="B5" s="165"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
+      <c r="A5" s="157"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
       <c r="G5" s="25"/>
       <c r="H5" s="11" t="s">
         <v>7</v>
@@ -21994,12 +21999,12 @@
       <c r="AF5" s="25"/>
     </row>
     <row r="6" spans="1:32" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="165"/>
-      <c r="B6" s="165"/>
-      <c r="C6" s="165"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
+      <c r="A6" s="157"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
       <c r="G6" s="25" t="s">
         <v>2</v>
       </c>
@@ -22076,12 +22081,12 @@
       <c r="AF6" s="27"/>
     </row>
     <row r="7" spans="1:32" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="154"/>
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
+      <c r="A7" s="158"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
       <c r="G7" s="41" t="s">
         <v>3</v>
       </c>
@@ -27908,16 +27913,23 @@
       <c r="AF68" s="117"/>
     </row>
     <row r="70" spans="1:32" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="174" t="s">
+      <c r="B70" s="173" t="s">
         <v>640</v>
       </c>
-      <c r="C70" s="174"/>
-      <c r="D70" s="174"/>
-      <c r="E70" s="174"/>
-      <c r="F70" s="174"/>
+      <c r="C70" s="173"/>
+      <c r="D70" s="173"/>
+      <c r="E70" s="173"/>
+      <c r="F70" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:AF2"/>
+    <mergeCell ref="A3:AF3"/>
     <mergeCell ref="B70:F70"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="Z4:AB4"/>
@@ -27928,13 +27940,6 @@
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="C4:C7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:AF2"/>
-    <mergeCell ref="A3:AF3"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J68 M8:M68 P8:P68">
     <cfRule type="cellIs" dxfId="27" priority="15" stopIfTrue="1" operator="lessThan">
@@ -28012,170 +28017,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="157"/>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="157"/>
-      <c r="S1" s="157"/>
-      <c r="T1" s="157"/>
-      <c r="U1" s="157"/>
-      <c r="V1" s="157"/>
-      <c r="W1" s="157"/>
-      <c r="X1" s="157"/>
-      <c r="Y1" s="157"/>
-      <c r="Z1" s="157"/>
-      <c r="AA1" s="157"/>
-      <c r="AB1" s="157"/>
-      <c r="AC1" s="157"/>
-      <c r="AD1" s="157"/>
-      <c r="AE1" s="157"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="164"/>
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="164"/>
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="164"/>
+      <c r="AD1" s="164"/>
+      <c r="AE1" s="164"/>
       <c r="AF1" s="10"/>
     </row>
     <row r="2" spans="1:32" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="157"/>
-      <c r="AB2" s="157"/>
-      <c r="AC2" s="157"/>
-      <c r="AD2" s="157"/>
-      <c r="AE2" s="157"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="164"/>
+      <c r="S2" s="164"/>
+      <c r="T2" s="164"/>
+      <c r="U2" s="164"/>
+      <c r="V2" s="164"/>
+      <c r="W2" s="164"/>
+      <c r="X2" s="164"/>
+      <c r="Y2" s="164"/>
+      <c r="Z2" s="164"/>
+      <c r="AA2" s="164"/>
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="164"/>
+      <c r="AD2" s="164"/>
+      <c r="AE2" s="164"/>
       <c r="AF2" s="10"/>
     </row>
     <row r="3" spans="1:32" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="171"/>
-      <c r="J3" s="171"/>
-      <c r="K3" s="171"/>
-      <c r="L3" s="171"/>
-      <c r="M3" s="171"/>
-      <c r="N3" s="171"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="171"/>
-      <c r="T3" s="171"/>
-      <c r="U3" s="171"/>
-      <c r="V3" s="171"/>
-      <c r="W3" s="171"/>
-      <c r="X3" s="171"/>
-      <c r="Y3" s="171"/>
-      <c r="Z3" s="171"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="171"/>
-      <c r="AC3" s="171"/>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="172"/>
+      <c r="N3" s="172"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="172"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="172"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="172"/>
+      <c r="AC3" s="172"/>
+      <c r="AD3" s="172"/>
+      <c r="AE3" s="172"/>
       <c r="AF3" s="10"/>
     </row>
     <row r="4" spans="1:32" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="175" t="s">
+      <c r="A4" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="175" t="s">
+      <c r="D4" s="177" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="176" t="s">
+      <c r="E4" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="176" t="s">
+      <c r="F4" s="178" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="153" t="s">
+      <c r="H4" s="161" t="s">
         <v>592</v>
       </c>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153" t="s">
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161" t="s">
         <v>593</v>
       </c>
-      <c r="L4" s="153"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="153" t="s">
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161" t="s">
         <v>594</v>
       </c>
-      <c r="O4" s="153"/>
-      <c r="P4" s="153"/>
-      <c r="Q4" s="159" t="s">
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="166" t="s">
         <v>595</v>
       </c>
-      <c r="R4" s="160"/>
-      <c r="S4" s="161"/>
-      <c r="T4" s="153" t="s">
+      <c r="R4" s="167"/>
+      <c r="S4" s="168"/>
+      <c r="T4" s="161" t="s">
         <v>596</v>
       </c>
-      <c r="U4" s="153"/>
-      <c r="V4" s="153"/>
-      <c r="W4" s="159" t="s">
+      <c r="U4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="166" t="s">
         <v>597</v>
       </c>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="161"/>
-      <c r="Z4" s="153" t="s">
+      <c r="X4" s="167"/>
+      <c r="Y4" s="168"/>
+      <c r="Z4" s="161" t="s">
         <v>610</v>
       </c>
-      <c r="AA4" s="153"/>
-      <c r="AB4" s="153"/>
+      <c r="AA4" s="161"/>
+      <c r="AB4" s="161"/>
       <c r="AC4" s="151" t="s">
         <v>653</v>
       </c>
@@ -28190,12 +28195,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="175"/>
-      <c r="B5" s="175"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
+      <c r="A5" s="177"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
       <c r="G5" s="4"/>
       <c r="H5" s="58" t="s">
         <v>7</v>
@@ -28266,12 +28271,12 @@
       <c r="AF5" s="75"/>
     </row>
     <row r="6" spans="1:32" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="175"/>
-      <c r="B6" s="175"/>
-      <c r="C6" s="175"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
+      <c r="A6" s="177"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
       <c r="G6" s="5" t="s">
         <v>2</v>
       </c>
@@ -28348,12 +28353,12 @@
       <c r="AF6" s="76"/>
     </row>
     <row r="7" spans="1:32" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="162"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
+      <c r="A7" s="154"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
       <c r="G7" s="8" t="s">
         <v>3</v>
       </c>
@@ -28511,23 +28516,18 @@
       <c r="W10" s="1"/>
     </row>
     <row r="12" spans="1:32" s="152" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="178" t="s">
+      <c r="C12" s="176" t="s">
         <v>652</v>
       </c>
-      <c r="D12" s="178"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="178"/>
+      <c r="D12" s="176"/>
+      <c r="E12" s="176"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="176"/>
+      <c r="I12" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="A2:AE2"/>
     <mergeCell ref="A3:AE3"/>
@@ -28540,6 +28540,11 @@
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="T4:V4"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
   </mergeCells>
   <conditionalFormatting sqref="Y8 AB8">
     <cfRule type="cellIs" dxfId="18" priority="20" stopIfTrue="1" operator="lessThan">
@@ -28604,170 +28609,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="157"/>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="157"/>
-      <c r="S1" s="157"/>
-      <c r="T1" s="157"/>
-      <c r="U1" s="157"/>
-      <c r="V1" s="157"/>
-      <c r="W1" s="157"/>
-      <c r="X1" s="157"/>
-      <c r="Y1" s="157"/>
-      <c r="Z1" s="157"/>
-      <c r="AA1" s="157"/>
-      <c r="AB1" s="157"/>
-      <c r="AC1" s="157"/>
-      <c r="AD1" s="157"/>
-      <c r="AE1" s="157"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="164"/>
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="164"/>
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="164"/>
+      <c r="AD1" s="164"/>
+      <c r="AE1" s="164"/>
       <c r="AF1" s="10"/>
     </row>
     <row r="2" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="157"/>
-      <c r="AB2" s="157"/>
-      <c r="AC2" s="157"/>
-      <c r="AD2" s="157"/>
-      <c r="AE2" s="157"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="164"/>
+      <c r="S2" s="164"/>
+      <c r="T2" s="164"/>
+      <c r="U2" s="164"/>
+      <c r="V2" s="164"/>
+      <c r="W2" s="164"/>
+      <c r="X2" s="164"/>
+      <c r="Y2" s="164"/>
+      <c r="Z2" s="164"/>
+      <c r="AA2" s="164"/>
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="164"/>
+      <c r="AD2" s="164"/>
+      <c r="AE2" s="164"/>
       <c r="AF2" s="10"/>
     </row>
     <row r="3" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="157"/>
-      <c r="P3" s="157"/>
-      <c r="Q3" s="157"/>
-      <c r="R3" s="157"/>
-      <c r="S3" s="157"/>
-      <c r="T3" s="157"/>
-      <c r="U3" s="157"/>
-      <c r="V3" s="157"/>
-      <c r="W3" s="157"/>
-      <c r="X3" s="157"/>
-      <c r="Y3" s="157"/>
-      <c r="Z3" s="157"/>
-      <c r="AA3" s="157"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="157"/>
-      <c r="AD3" s="157"/>
-      <c r="AE3" s="157"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="164"/>
+      <c r="P3" s="164"/>
+      <c r="Q3" s="164"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="164"/>
+      <c r="T3" s="164"/>
+      <c r="U3" s="164"/>
+      <c r="V3" s="164"/>
+      <c r="W3" s="164"/>
+      <c r="X3" s="164"/>
+      <c r="Y3" s="164"/>
+      <c r="Z3" s="164"/>
+      <c r="AA3" s="164"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="164"/>
+      <c r="AD3" s="164"/>
+      <c r="AE3" s="164"/>
       <c r="AF3" s="10"/>
     </row>
     <row r="4" spans="1:32" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="175" t="s">
+      <c r="A4" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="177" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="175" t="s">
+      <c r="D4" s="177" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="176" t="s">
+      <c r="E4" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="176" t="s">
+      <c r="F4" s="178" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="153" t="s">
+      <c r="H4" s="161" t="s">
         <v>635</v>
       </c>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153" t="s">
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161" t="s">
         <v>589</v>
       </c>
-      <c r="L4" s="153"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="153" t="s">
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161" t="s">
         <v>602</v>
       </c>
-      <c r="O4" s="153"/>
-      <c r="P4" s="153"/>
-      <c r="Q4" s="153" t="s">
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161" t="s">
         <v>633</v>
       </c>
-      <c r="R4" s="153"/>
-      <c r="S4" s="153"/>
-      <c r="T4" s="153" t="s">
+      <c r="R4" s="161"/>
+      <c r="S4" s="161"/>
+      <c r="T4" s="161" t="s">
         <v>590</v>
       </c>
-      <c r="U4" s="153"/>
-      <c r="V4" s="153"/>
-      <c r="W4" s="153" t="s">
+      <c r="U4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161" t="s">
         <v>636</v>
       </c>
-      <c r="X4" s="153"/>
-      <c r="Y4" s="153"/>
-      <c r="Z4" s="153" t="s">
+      <c r="X4" s="161"/>
+      <c r="Y4" s="161"/>
+      <c r="Z4" s="161" t="s">
         <v>634</v>
       </c>
-      <c r="AA4" s="153"/>
-      <c r="AB4" s="153"/>
+      <c r="AA4" s="161"/>
+      <c r="AB4" s="161"/>
       <c r="AC4" s="148" t="s">
         <v>637</v>
       </c>
@@ -28782,12 +28787,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="175"/>
-      <c r="B5" s="175"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
+      <c r="A5" s="177"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
       <c r="G5" s="7"/>
       <c r="H5" s="11" t="s">
         <v>7</v>
@@ -28858,12 +28863,12 @@
       <c r="AF5" s="51"/>
     </row>
     <row r="6" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="175"/>
-      <c r="B6" s="175"/>
-      <c r="C6" s="175"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
+      <c r="A6" s="177"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
       <c r="G6" s="5" t="s">
         <v>2</v>
       </c>
@@ -28940,12 +28945,12 @@
       <c r="AF6" s="39"/>
     </row>
     <row r="7" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="175"/>
-      <c r="B7" s="175"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
+      <c r="A7" s="177"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
       <c r="G7" s="8" t="s">
         <v>3</v>
       </c>
@@ -34018,21 +34023,13 @@
       </c>
     </row>
     <row r="64" spans="1:32" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="179"/>
-      <c r="C64" s="179"/>
-      <c r="D64" s="179"/>
-      <c r="E64" s="179"/>
+      <c r="B64" s="180"/>
+      <c r="C64" s="180"/>
+      <c r="D64" s="180"/>
+      <c r="E64" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="C4:C7"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="A2:AE2"/>
     <mergeCell ref="A3:AE3"/>
@@ -34042,6 +34039,14 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="C4:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J60">
     <cfRule type="cellIs" dxfId="13" priority="15" stopIfTrue="1" operator="lessThan">

--- a/dat/B. TECH. I SEM DEC 18.xlsx
+++ b/dat/B. TECH. I SEM DEC 18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jatin\Desktop\web d\react\live-result\public\dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B693D963-8B9C-4C79-B42E-6BA2F990150A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9801CAAA-4022-4A9E-8A35-39F2DFBC28C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2813,29 +2813,11 @@
     <xf numFmtId="2" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2858,20 +2840,35 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2879,8 +2876,8 @@
     <xf numFmtId="1" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2890,6 +2887,9 @@
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4014,8 +4014,8 @@
   </sheetPr>
   <dimension ref="A1:AF70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G5" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+    <sheetView tabSelected="1" topLeftCell="F52" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AD55" sqref="AD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4037,167 +4037,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="164" t="s">
+      <c r="B1" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="164"/>
-      <c r="S1" s="164"/>
-      <c r="T1" s="164"/>
-      <c r="U1" s="164"/>
-      <c r="V1" s="164"/>
-      <c r="W1" s="164"/>
-      <c r="X1" s="164"/>
-      <c r="Y1" s="164"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="164"/>
-      <c r="AB1" s="164"/>
-      <c r="AC1" s="164"/>
-      <c r="AD1" s="164"/>
-      <c r="AE1" s="164"/>
-      <c r="AF1" s="164"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="158"/>
+      <c r="Y1" s="158"/>
+      <c r="Z1" s="158"/>
+      <c r="AA1" s="158"/>
+      <c r="AB1" s="158"/>
+      <c r="AC1" s="158"/>
+      <c r="AD1" s="158"/>
+      <c r="AE1" s="158"/>
+      <c r="AF1" s="158"/>
     </row>
     <row r="2" spans="1:32" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="164"/>
-      <c r="U2" s="164"/>
-      <c r="V2" s="164"/>
-      <c r="W2" s="164"/>
-      <c r="X2" s="164"/>
-      <c r="Y2" s="164"/>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="164"/>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="164"/>
-      <c r="AD2" s="164"/>
-      <c r="AE2" s="164"/>
-      <c r="AF2" s="164"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="158"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="158"/>
+      <c r="AB2" s="158"/>
+      <c r="AC2" s="158"/>
+      <c r="AD2" s="158"/>
+      <c r="AE2" s="158"/>
+      <c r="AF2" s="158"/>
     </row>
     <row r="3" spans="1:32" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="165" t="s">
+      <c r="B3" s="159" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
-      <c r="N3" s="165"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="165"/>
-      <c r="S3" s="165"/>
-      <c r="T3" s="165"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="165"/>
-      <c r="AA3" s="165"/>
-      <c r="AB3" s="165"/>
-      <c r="AC3" s="165"/>
-      <c r="AD3" s="165"/>
-      <c r="AE3" s="165"/>
-      <c r="AF3" s="165"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="159"/>
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="159"/>
+      <c r="AD3" s="159"/>
+      <c r="AE3" s="159"/>
+      <c r="AF3" s="159"/>
     </row>
     <row r="4" spans="1:32" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="158" t="s">
+      <c r="C4" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="158" t="s">
+      <c r="D4" s="155" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="159" t="s">
+      <c r="E4" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="159" t="s">
+      <c r="F4" s="167" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="161" t="s">
+      <c r="H4" s="154" t="s">
         <v>592</v>
       </c>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161" t="s">
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154" t="s">
         <v>593</v>
       </c>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161" t="s">
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154" t="s">
         <v>594</v>
       </c>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="166" t="s">
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="160" t="s">
         <v>595</v>
       </c>
-      <c r="R4" s="167"/>
-      <c r="S4" s="168"/>
-      <c r="T4" s="161" t="s">
+      <c r="R4" s="161"/>
+      <c r="S4" s="162"/>
+      <c r="T4" s="154" t="s">
         <v>596</v>
       </c>
-      <c r="U4" s="161"/>
-      <c r="V4" s="161"/>
-      <c r="W4" s="166" t="s">
+      <c r="U4" s="154"/>
+      <c r="V4" s="154"/>
+      <c r="W4" s="160" t="s">
         <v>597</v>
       </c>
-      <c r="X4" s="167"/>
-      <c r="Y4" s="168"/>
-      <c r="Z4" s="161" t="s">
+      <c r="X4" s="161"/>
+      <c r="Y4" s="162"/>
+      <c r="Z4" s="154" t="s">
         <v>651</v>
       </c>
-      <c r="AA4" s="161"/>
-      <c r="AB4" s="161"/>
+      <c r="AA4" s="154"/>
+      <c r="AB4" s="154"/>
       <c r="AC4" s="151" t="s">
         <v>650</v>
       </c>
@@ -4212,12 +4212,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="155"/>
-      <c r="B5" s="157"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
+      <c r="A5" s="164"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
       <c r="G5" s="26"/>
       <c r="H5" s="13" t="s">
         <v>7</v>
@@ -4288,12 +4288,12 @@
       <c r="AF5" s="25"/>
     </row>
     <row r="6" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="155"/>
-      <c r="B6" s="157"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
+      <c r="A6" s="164"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
       <c r="G6" s="78" t="s">
         <v>2</v>
       </c>
@@ -4370,12 +4370,12 @@
       <c r="AF6" s="27"/>
     </row>
     <row r="7" spans="1:32" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="156"/>
-      <c r="B7" s="158"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
+      <c r="A7" s="165"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
       <c r="G7" s="28" t="s">
         <v>3</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>40</v>
       </c>
       <c r="AD55" s="98">
-        <v>556</v>
+        <v>605</v>
       </c>
       <c r="AE55" s="153" t="s">
         <v>658</v>
@@ -10223,6 +10223,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="T4:V4"/>
@@ -10234,11 +10239,6 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="Y8:Y68 AB8:AB68">
@@ -10335,170 +10335,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="79" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="171"/>
-      <c r="V1" s="171"/>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="171"/>
-      <c r="Z1" s="171"/>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="171"/>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="171"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="169"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="169"/>
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="169"/>
+      <c r="S1" s="169"/>
+      <c r="T1" s="169"/>
+      <c r="U1" s="169"/>
+      <c r="V1" s="169"/>
+      <c r="W1" s="169"/>
+      <c r="X1" s="169"/>
+      <c r="Y1" s="169"/>
+      <c r="Z1" s="169"/>
+      <c r="AA1" s="169"/>
+      <c r="AB1" s="169"/>
+      <c r="AC1" s="169"/>
+      <c r="AD1" s="169"/>
+      <c r="AE1" s="169"/>
+      <c r="AF1" s="169"/>
     </row>
     <row r="2" spans="1:32" s="79" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="171"/>
-      <c r="L2" s="171"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="171"/>
-      <c r="Q2" s="171"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="171"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="171"/>
-      <c r="AA2" s="171"/>
-      <c r="AB2" s="171"/>
-      <c r="AC2" s="171"/>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="171"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="169"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="169"/>
+      <c r="AA2" s="169"/>
+      <c r="AB2" s="169"/>
+      <c r="AC2" s="169"/>
+      <c r="AD2" s="169"/>
+      <c r="AE2" s="169"/>
+      <c r="AF2" s="169"/>
     </row>
     <row r="3" spans="1:32" s="79" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="169" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="171"/>
-      <c r="J3" s="171"/>
-      <c r="K3" s="171"/>
-      <c r="L3" s="171"/>
-      <c r="M3" s="171"/>
-      <c r="N3" s="171"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="171"/>
-      <c r="T3" s="171"/>
-      <c r="U3" s="171"/>
-      <c r="V3" s="171"/>
-      <c r="W3" s="171"/>
-      <c r="X3" s="171"/>
-      <c r="Y3" s="171"/>
-      <c r="Z3" s="171"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="171"/>
-      <c r="AC3" s="171"/>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="171"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="169"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="169"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="169"/>
+      <c r="Y3" s="169"/>
+      <c r="Z3" s="169"/>
+      <c r="AA3" s="169"/>
+      <c r="AB3" s="169"/>
+      <c r="AC3" s="169"/>
+      <c r="AD3" s="169"/>
+      <c r="AE3" s="169"/>
+      <c r="AF3" s="169"/>
     </row>
     <row r="4" spans="1:32" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="157" t="s">
+      <c r="D4" s="166" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="159" t="s">
+      <c r="E4" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="159" t="s">
+      <c r="F4" s="167" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="161" t="s">
+      <c r="H4" s="154" t="s">
         <v>642</v>
       </c>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161" t="s">
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154" t="s">
         <v>589</v>
       </c>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161" t="s">
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154" t="s">
         <v>602</v>
       </c>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161" t="s">
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="154" t="s">
         <v>641</v>
       </c>
-      <c r="R4" s="161"/>
-      <c r="S4" s="161"/>
-      <c r="T4" s="161" t="s">
+      <c r="R4" s="154"/>
+      <c r="S4" s="154"/>
+      <c r="T4" s="154" t="s">
         <v>590</v>
       </c>
-      <c r="U4" s="161"/>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161" t="s">
+      <c r="U4" s="154"/>
+      <c r="V4" s="154"/>
+      <c r="W4" s="154" t="s">
         <v>643</v>
       </c>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="161"/>
-      <c r="Z4" s="161" t="s">
+      <c r="X4" s="154"/>
+      <c r="Y4" s="154"/>
+      <c r="Z4" s="154" t="s">
         <v>644</v>
       </c>
-      <c r="AA4" s="161"/>
-      <c r="AB4" s="161"/>
+      <c r="AA4" s="154"/>
+      <c r="AB4" s="154"/>
       <c r="AC4" s="145" t="s">
         <v>604</v>
       </c>
@@ -10513,12 +10513,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="157"/>
-      <c r="B5" s="157"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="157"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
+      <c r="A5" s="166"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
       <c r="G5" s="34"/>
       <c r="H5" s="11" t="s">
         <v>7</v>
@@ -10589,12 +10589,12 @@
       <c r="AF5" s="34"/>
     </row>
     <row r="6" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="157"/>
-      <c r="B6" s="157"/>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
+      <c r="A6" s="166"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
       <c r="G6" s="36" t="s">
         <v>2</v>
       </c>
@@ -10671,12 +10671,12 @@
       <c r="AF6" s="52"/>
     </row>
     <row r="7" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="158"/>
-      <c r="B7" s="158"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
+      <c r="A7" s="155"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
       <c r="G7" s="37" t="s">
         <v>3</v>
       </c>
@@ -16056,16 +16056,21 @@
       <c r="AF64" s="14"/>
     </row>
     <row r="67" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="169" t="s">
+      <c r="B67" s="170" t="s">
         <v>640</v>
       </c>
-      <c r="C67" s="170"/>
-      <c r="D67" s="170"/>
-      <c r="E67" s="170"/>
-      <c r="F67" s="170"/>
+      <c r="C67" s="171"/>
+      <c r="D67" s="171"/>
+      <c r="E67" s="171"/>
+      <c r="F67" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A2:AF2"/>
     <mergeCell ref="A3:AF3"/>
@@ -16078,11 +16083,6 @@
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
   </mergeCells>
   <conditionalFormatting sqref="Q8:Q63">
     <cfRule type="cellIs" dxfId="52" priority="21" stopIfTrue="1" operator="lessThan">
@@ -16193,76 +16193,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="171"/>
-      <c r="V1" s="171"/>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="171"/>
-      <c r="Z1" s="171"/>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="171"/>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="171"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="169"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="169"/>
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="169"/>
+      <c r="S1" s="169"/>
+      <c r="T1" s="169"/>
+      <c r="U1" s="169"/>
+      <c r="V1" s="169"/>
+      <c r="W1" s="169"/>
+      <c r="X1" s="169"/>
+      <c r="Y1" s="169"/>
+      <c r="Z1" s="169"/>
+      <c r="AA1" s="169"/>
+      <c r="AB1" s="169"/>
+      <c r="AC1" s="169"/>
+      <c r="AD1" s="169"/>
+      <c r="AE1" s="169"/>
+      <c r="AF1" s="169"/>
     </row>
     <row r="2" spans="1:32" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="171"/>
-      <c r="L2" s="171"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="171"/>
-      <c r="Q2" s="171"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="171"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="171"/>
-      <c r="AA2" s="171"/>
-      <c r="AB2" s="171"/>
-      <c r="AC2" s="171"/>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="171"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="169"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="169"/>
+      <c r="AA2" s="169"/>
+      <c r="AB2" s="169"/>
+      <c r="AC2" s="169"/>
+      <c r="AD2" s="169"/>
+      <c r="AE2" s="169"/>
+      <c r="AF2" s="169"/>
     </row>
     <row r="3" spans="1:32" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="172" t="s">
@@ -16301,60 +16301,60 @@
       <c r="AF3" s="172"/>
     </row>
     <row r="4" spans="1:32" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="155" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="129"/>
-      <c r="D4" s="158" t="s">
+      <c r="D4" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="159" t="s">
+      <c r="E4" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="159" t="s">
+      <c r="F4" s="167" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="161" t="s">
+      <c r="H4" s="154" t="s">
         <v>592</v>
       </c>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161" t="s">
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154" t="s">
         <v>593</v>
       </c>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161" t="s">
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154" t="s">
         <v>648</v>
       </c>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="166" t="s">
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="160" t="s">
         <v>595</v>
       </c>
-      <c r="R4" s="167"/>
-      <c r="S4" s="168"/>
-      <c r="T4" s="161" t="s">
+      <c r="R4" s="161"/>
+      <c r="S4" s="162"/>
+      <c r="T4" s="154" t="s">
         <v>596</v>
       </c>
-      <c r="U4" s="161"/>
-      <c r="V4" s="161"/>
-      <c r="W4" s="166" t="s">
+      <c r="U4" s="154"/>
+      <c r="V4" s="154"/>
+      <c r="W4" s="160" t="s">
         <v>597</v>
       </c>
-      <c r="X4" s="167"/>
-      <c r="Y4" s="168"/>
-      <c r="Z4" s="161" t="s">
+      <c r="X4" s="161"/>
+      <c r="Y4" s="162"/>
+      <c r="Z4" s="154" t="s">
         <v>610</v>
       </c>
-      <c r="AA4" s="161"/>
-      <c r="AB4" s="161"/>
+      <c r="AA4" s="154"/>
+      <c r="AB4" s="154"/>
       <c r="AC4" s="145" t="s">
         <v>605</v>
       </c>
@@ -16369,12 +16369,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="157"/>
-      <c r="B5" s="162"/>
+      <c r="A5" s="166"/>
+      <c r="B5" s="156"/>
       <c r="C5" s="130"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
       <c r="G5" s="82"/>
       <c r="H5" s="58" t="s">
         <v>7</v>
@@ -16445,12 +16445,12 @@
       <c r="AF5" s="25"/>
     </row>
     <row r="6" spans="1:32" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="157"/>
-      <c r="B6" s="162"/>
+      <c r="A6" s="166"/>
+      <c r="B6" s="156"/>
       <c r="C6" s="130"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
       <c r="G6" s="82" t="s">
         <v>2</v>
       </c>
@@ -16527,12 +16527,12 @@
       <c r="AF6" s="27"/>
     </row>
     <row r="7" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="158"/>
-      <c r="B7" s="163"/>
+      <c r="A7" s="155"/>
+      <c r="B7" s="157"/>
       <c r="C7" s="131"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
       <c r="G7" s="83" t="s">
         <v>3</v>
       </c>
@@ -21745,170 +21745,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="174"/>
-      <c r="T1" s="174"/>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="174"/>
-      <c r="AA1" s="174"/>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="174"/>
-      <c r="AD1" s="174"/>
-      <c r="AE1" s="174"/>
-      <c r="AF1" s="174"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="173"/>
+      <c r="AB1" s="173"/>
+      <c r="AC1" s="173"/>
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="173"/>
     </row>
     <row r="2" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="174"/>
-      <c r="AA2" s="174"/>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="174"/>
-      <c r="AD2" s="174"/>
-      <c r="AE2" s="174"/>
-      <c r="AF2" s="174"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="173"/>
+      <c r="Z2" s="173"/>
+      <c r="AA2" s="173"/>
+      <c r="AB2" s="173"/>
+      <c r="AC2" s="173"/>
+      <c r="AD2" s="173"/>
+      <c r="AE2" s="173"/>
+      <c r="AF2" s="173"/>
     </row>
     <row r="3" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
-      <c r="S3" s="175"/>
-      <c r="T3" s="175"/>
-      <c r="U3" s="175"/>
-      <c r="V3" s="175"/>
-      <c r="W3" s="175"/>
-      <c r="X3" s="175"/>
-      <c r="Y3" s="175"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="175"/>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="175"/>
-      <c r="AD3" s="175"/>
-      <c r="AE3" s="175"/>
-      <c r="AF3" s="175"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="174"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="174"/>
+      <c r="Y3" s="174"/>
+      <c r="Z3" s="174"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="174"/>
+      <c r="AD3" s="174"/>
+      <c r="AE3" s="174"/>
+      <c r="AF3" s="174"/>
     </row>
     <row r="4" spans="1:32" ht="147.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="157" t="s">
+      <c r="D4" s="166" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="159" t="s">
+      <c r="E4" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="159" t="s">
+      <c r="F4" s="167" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="161" t="s">
+      <c r="H4" s="154" t="s">
         <v>642</v>
       </c>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161" t="s">
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154" t="s">
         <v>589</v>
       </c>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161" t="s">
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154" t="s">
         <v>602</v>
       </c>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161" t="s">
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="154" t="s">
         <v>645</v>
       </c>
-      <c r="R4" s="161"/>
-      <c r="S4" s="161"/>
-      <c r="T4" s="161" t="s">
+      <c r="R4" s="154"/>
+      <c r="S4" s="154"/>
+      <c r="T4" s="154" t="s">
         <v>590</v>
       </c>
-      <c r="U4" s="161"/>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161" t="s">
+      <c r="U4" s="154"/>
+      <c r="V4" s="154"/>
+      <c r="W4" s="154" t="s">
         <v>649</v>
       </c>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="161"/>
-      <c r="Z4" s="161" t="s">
+      <c r="X4" s="154"/>
+      <c r="Y4" s="154"/>
+      <c r="Z4" s="154" t="s">
         <v>591</v>
       </c>
-      <c r="AA4" s="161"/>
-      <c r="AB4" s="161"/>
+      <c r="AA4" s="154"/>
+      <c r="AB4" s="154"/>
       <c r="AC4" s="145" t="s">
         <v>604</v>
       </c>
@@ -21923,12 +21923,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="157"/>
-      <c r="B5" s="157"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="157"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
+      <c r="A5" s="166"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
       <c r="G5" s="25"/>
       <c r="H5" s="11" t="s">
         <v>7</v>
@@ -21999,12 +21999,12 @@
       <c r="AF5" s="25"/>
     </row>
     <row r="6" spans="1:32" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="157"/>
-      <c r="B6" s="157"/>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
+      <c r="A6" s="166"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
       <c r="G6" s="25" t="s">
         <v>2</v>
       </c>
@@ -22081,12 +22081,12 @@
       <c r="AF6" s="27"/>
     </row>
     <row r="7" spans="1:32" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="158"/>
-      <c r="B7" s="158"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
+      <c r="A7" s="155"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
       <c r="G7" s="41" t="s">
         <v>3</v>
       </c>
@@ -27913,23 +27913,16 @@
       <c r="AF68" s="117"/>
     </row>
     <row r="70" spans="1:32" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="173" t="s">
+      <c r="B70" s="175" t="s">
         <v>640</v>
       </c>
-      <c r="C70" s="173"/>
-      <c r="D70" s="173"/>
-      <c r="E70" s="173"/>
-      <c r="F70" s="173"/>
+      <c r="C70" s="175"/>
+      <c r="D70" s="175"/>
+      <c r="E70" s="175"/>
+      <c r="F70" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:AF2"/>
-    <mergeCell ref="A3:AF3"/>
     <mergeCell ref="B70:F70"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="Z4:AB4"/>
@@ -27940,6 +27933,13 @@
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="C4:C7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:AF2"/>
+    <mergeCell ref="A3:AF3"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J68 M8:M68 P8:P68">
     <cfRule type="cellIs" dxfId="27" priority="15" stopIfTrue="1" operator="lessThan">
@@ -28017,75 +28017,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="164"/>
-      <c r="S1" s="164"/>
-      <c r="T1" s="164"/>
-      <c r="U1" s="164"/>
-      <c r="V1" s="164"/>
-      <c r="W1" s="164"/>
-      <c r="X1" s="164"/>
-      <c r="Y1" s="164"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="164"/>
-      <c r="AB1" s="164"/>
-      <c r="AC1" s="164"/>
-      <c r="AD1" s="164"/>
-      <c r="AE1" s="164"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="158"/>
+      <c r="Y1" s="158"/>
+      <c r="Z1" s="158"/>
+      <c r="AA1" s="158"/>
+      <c r="AB1" s="158"/>
+      <c r="AC1" s="158"/>
+      <c r="AD1" s="158"/>
+      <c r="AE1" s="158"/>
       <c r="AF1" s="10"/>
     </row>
     <row r="2" spans="1:32" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="164"/>
-      <c r="U2" s="164"/>
-      <c r="V2" s="164"/>
-      <c r="W2" s="164"/>
-      <c r="X2" s="164"/>
-      <c r="Y2" s="164"/>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="164"/>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="164"/>
-      <c r="AD2" s="164"/>
-      <c r="AE2" s="164"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="158"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="158"/>
+      <c r="AB2" s="158"/>
+      <c r="AC2" s="158"/>
+      <c r="AD2" s="158"/>
+      <c r="AE2" s="158"/>
       <c r="AF2" s="10"/>
     </row>
     <row r="3" spans="1:32" ht="71" customHeight="1" x14ac:dyDescent="0.25">
@@ -28125,62 +28125,62 @@
       <c r="AF3" s="10"/>
     </row>
     <row r="4" spans="1:32" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="177" t="s">
+      <c r="B4" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="177" t="s">
+      <c r="C4" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="177" t="s">
+      <c r="D4" s="176" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="178" t="s">
+      <c r="E4" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="178" t="s">
+      <c r="F4" s="177" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="161" t="s">
+      <c r="H4" s="154" t="s">
         <v>592</v>
       </c>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161" t="s">
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154" t="s">
         <v>593</v>
       </c>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161" t="s">
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154" t="s">
         <v>594</v>
       </c>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="166" t="s">
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="160" t="s">
         <v>595</v>
       </c>
-      <c r="R4" s="167"/>
-      <c r="S4" s="168"/>
-      <c r="T4" s="161" t="s">
+      <c r="R4" s="161"/>
+      <c r="S4" s="162"/>
+      <c r="T4" s="154" t="s">
         <v>596</v>
       </c>
-      <c r="U4" s="161"/>
-      <c r="V4" s="161"/>
-      <c r="W4" s="166" t="s">
+      <c r="U4" s="154"/>
+      <c r="V4" s="154"/>
+      <c r="W4" s="160" t="s">
         <v>597</v>
       </c>
-      <c r="X4" s="167"/>
-      <c r="Y4" s="168"/>
-      <c r="Z4" s="161" t="s">
+      <c r="X4" s="161"/>
+      <c r="Y4" s="162"/>
+      <c r="Z4" s="154" t="s">
         <v>610</v>
       </c>
-      <c r="AA4" s="161"/>
-      <c r="AB4" s="161"/>
+      <c r="AA4" s="154"/>
+      <c r="AB4" s="154"/>
       <c r="AC4" s="151" t="s">
         <v>653</v>
       </c>
@@ -28195,12 +28195,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="177"/>
-      <c r="B5" s="177"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
+      <c r="A5" s="176"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
       <c r="G5" s="4"/>
       <c r="H5" s="58" t="s">
         <v>7</v>
@@ -28271,12 +28271,12 @@
       <c r="AF5" s="75"/>
     </row>
     <row r="6" spans="1:32" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="177"/>
-      <c r="B6" s="177"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
+      <c r="A6" s="176"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
       <c r="G6" s="5" t="s">
         <v>2</v>
       </c>
@@ -28353,12 +28353,12 @@
       <c r="AF6" s="76"/>
     </row>
     <row r="7" spans="1:32" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="154"/>
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
+      <c r="A7" s="163"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
       <c r="G7" s="8" t="s">
         <v>3</v>
       </c>
@@ -28516,18 +28516,23 @@
       <c r="W10" s="1"/>
     </row>
     <row r="12" spans="1:32" s="152" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="176" t="s">
+      <c r="C12" s="179" t="s">
         <v>652</v>
       </c>
-      <c r="D12" s="176"/>
-      <c r="E12" s="176"/>
-      <c r="F12" s="176"/>
-      <c r="G12" s="176"/>
-      <c r="H12" s="176"/>
-      <c r="I12" s="176"/>
+      <c r="D12" s="179"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="179"/>
+      <c r="G12" s="179"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="A2:AE2"/>
     <mergeCell ref="A3:AE3"/>
@@ -28540,11 +28545,6 @@
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="T4:V4"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
   </mergeCells>
   <conditionalFormatting sqref="Y8 AB8">
     <cfRule type="cellIs" dxfId="18" priority="20" stopIfTrue="1" operator="lessThan">
@@ -28609,170 +28609,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="164"/>
-      <c r="S1" s="164"/>
-      <c r="T1" s="164"/>
-      <c r="U1" s="164"/>
-      <c r="V1" s="164"/>
-      <c r="W1" s="164"/>
-      <c r="X1" s="164"/>
-      <c r="Y1" s="164"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="164"/>
-      <c r="AB1" s="164"/>
-      <c r="AC1" s="164"/>
-      <c r="AD1" s="164"/>
-      <c r="AE1" s="164"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="158"/>
+      <c r="Y1" s="158"/>
+      <c r="Z1" s="158"/>
+      <c r="AA1" s="158"/>
+      <c r="AB1" s="158"/>
+      <c r="AC1" s="158"/>
+      <c r="AD1" s="158"/>
+      <c r="AE1" s="158"/>
       <c r="AF1" s="10"/>
     </row>
     <row r="2" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="164"/>
-      <c r="U2" s="164"/>
-      <c r="V2" s="164"/>
-      <c r="W2" s="164"/>
-      <c r="X2" s="164"/>
-      <c r="Y2" s="164"/>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="164"/>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="164"/>
-      <c r="AD2" s="164"/>
-      <c r="AE2" s="164"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="158"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="158"/>
+      <c r="AB2" s="158"/>
+      <c r="AC2" s="158"/>
+      <c r="AD2" s="158"/>
+      <c r="AE2" s="158"/>
       <c r="AF2" s="10"/>
     </row>
     <row r="3" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="164"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="164"/>
-      <c r="Q3" s="164"/>
-      <c r="R3" s="164"/>
-      <c r="S3" s="164"/>
-      <c r="T3" s="164"/>
-      <c r="U3" s="164"/>
-      <c r="V3" s="164"/>
-      <c r="W3" s="164"/>
-      <c r="X3" s="164"/>
-      <c r="Y3" s="164"/>
-      <c r="Z3" s="164"/>
-      <c r="AA3" s="164"/>
-      <c r="AB3" s="164"/>
-      <c r="AC3" s="164"/>
-      <c r="AD3" s="164"/>
-      <c r="AE3" s="164"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="158"/>
+      <c r="Q3" s="158"/>
+      <c r="R3" s="158"/>
+      <c r="S3" s="158"/>
+      <c r="T3" s="158"/>
+      <c r="U3" s="158"/>
+      <c r="V3" s="158"/>
+      <c r="W3" s="158"/>
+      <c r="X3" s="158"/>
+      <c r="Y3" s="158"/>
+      <c r="Z3" s="158"/>
+      <c r="AA3" s="158"/>
+      <c r="AB3" s="158"/>
+      <c r="AC3" s="158"/>
+      <c r="AD3" s="158"/>
+      <c r="AE3" s="158"/>
       <c r="AF3" s="10"/>
     </row>
     <row r="4" spans="1:32" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="177" t="s">
+      <c r="B4" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="177" t="s">
+      <c r="C4" s="176" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="177" t="s">
+      <c r="D4" s="176" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="178" t="s">
+      <c r="E4" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="178" t="s">
+      <c r="F4" s="177" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="161" t="s">
+      <c r="H4" s="154" t="s">
         <v>635</v>
       </c>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161" t="s">
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154" t="s">
         <v>589</v>
       </c>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161" t="s">
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154" t="s">
         <v>602</v>
       </c>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161" t="s">
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="154" t="s">
         <v>633</v>
       </c>
-      <c r="R4" s="161"/>
-      <c r="S4" s="161"/>
-      <c r="T4" s="161" t="s">
+      <c r="R4" s="154"/>
+      <c r="S4" s="154"/>
+      <c r="T4" s="154" t="s">
         <v>590</v>
       </c>
-      <c r="U4" s="161"/>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161" t="s">
+      <c r="U4" s="154"/>
+      <c r="V4" s="154"/>
+      <c r="W4" s="154" t="s">
         <v>636</v>
       </c>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="161"/>
-      <c r="Z4" s="161" t="s">
+      <c r="X4" s="154"/>
+      <c r="Y4" s="154"/>
+      <c r="Z4" s="154" t="s">
         <v>634</v>
       </c>
-      <c r="AA4" s="161"/>
-      <c r="AB4" s="161"/>
+      <c r="AA4" s="154"/>
+      <c r="AB4" s="154"/>
       <c r="AC4" s="148" t="s">
         <v>637</v>
       </c>
@@ -28787,12 +28787,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="177"/>
-      <c r="B5" s="177"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
+      <c r="A5" s="176"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
       <c r="G5" s="7"/>
       <c r="H5" s="11" t="s">
         <v>7</v>
@@ -28863,12 +28863,12 @@
       <c r="AF5" s="51"/>
     </row>
     <row r="6" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="177"/>
-      <c r="B6" s="177"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
+      <c r="A6" s="176"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
       <c r="G6" s="5" t="s">
         <v>2</v>
       </c>
@@ -28945,12 +28945,12 @@
       <c r="AF6" s="39"/>
     </row>
     <row r="7" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="177"/>
-      <c r="B7" s="177"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
       <c r="G7" s="8" t="s">
         <v>3</v>
       </c>
@@ -34030,6 +34030,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="C4:C7"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="A2:AE2"/>
     <mergeCell ref="A3:AE3"/>
@@ -34039,14 +34047,6 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="C4:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J60">
     <cfRule type="cellIs" dxfId="13" priority="15" stopIfTrue="1" operator="lessThan">

--- a/dat/B. TECH. I SEM DEC 18.xlsx
+++ b/dat/B. TECH. I SEM DEC 18.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jatin\Desktop\web d\react\live-result\public\dat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jatin\Desktop\dev\web d\react\live-result\public\dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9801CAAA-4022-4A9E-8A35-39F2DFBC28C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBC7D9F-0363-450F-BD18-EACC9092DCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C S" sheetId="6" r:id="rId1"/>
@@ -4014,7 +4014,7 @@
   </sheetPr>
   <dimension ref="A1:AF70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F52" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="F52" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AD55" sqref="AD55"/>
     </sheetView>
   </sheetViews>
@@ -28583,8 +28583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView topLeftCell="G3" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AC32" sqref="AC32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -31297,13 +31297,13 @@
       </c>
       <c r="G32" s="50"/>
       <c r="H32" s="95">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I32" s="95">
         <v>40</v>
       </c>
       <c r="J32" s="98">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="K32" s="95">
         <v>37</v>
@@ -31315,13 +31315,13 @@
         <v>80</v>
       </c>
       <c r="N32" s="95">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="O32" s="95">
         <v>46</v>
       </c>
       <c r="P32" s="98">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="Q32" s="95">
         <v>29</v>
@@ -31363,7 +31363,7 @@
         <v>44</v>
       </c>
       <c r="AD32" s="98">
-        <v>417</v>
+        <v>517</v>
       </c>
       <c r="AE32" s="125" t="s">
         <v>606</v>
@@ -31393,31 +31393,31 @@
       </c>
       <c r="G33" s="50"/>
       <c r="H33" s="95">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="I33" s="95">
         <v>34</v>
       </c>
       <c r="J33" s="98">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="K33" s="95">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="L33" s="95">
         <v>36</v>
       </c>
       <c r="M33" s="98">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="N33" s="95">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="O33" s="95">
         <v>47</v>
       </c>
       <c r="P33" s="98">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="Q33" s="95">
         <v>26</v>
@@ -31459,7 +31459,7 @@
         <v>47</v>
       </c>
       <c r="AD33" s="98">
-        <v>380</v>
+        <v>537</v>
       </c>
       <c r="AE33" s="125" t="s">
         <v>606</v>

--- a/dat/B. TECH. I SEM DEC 18.xlsx
+++ b/dat/B. TECH. I SEM DEC 18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jatin\Desktop\dev\web d\react\live-result\public\dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBC7D9F-0363-450F-BD18-EACC9092DCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5EA467-E5E9-4A45-95F0-74700DA39222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="659">
   <si>
     <t>Roll No.</t>
   </si>
@@ -2813,11 +2813,29 @@
     <xf numFmtId="2" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2840,35 +2858,20 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2876,8 +2879,8 @@
     <xf numFmtId="1" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2887,9 +2890,6 @@
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4037,167 +4037,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
-      <c r="O1" s="158"/>
-      <c r="P1" s="158"/>
-      <c r="Q1" s="158"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="158"/>
-      <c r="T1" s="158"/>
-      <c r="U1" s="158"/>
-      <c r="V1" s="158"/>
-      <c r="W1" s="158"/>
-      <c r="X1" s="158"/>
-      <c r="Y1" s="158"/>
-      <c r="Z1" s="158"/>
-      <c r="AA1" s="158"/>
-      <c r="AB1" s="158"/>
-      <c r="AC1" s="158"/>
-      <c r="AD1" s="158"/>
-      <c r="AE1" s="158"/>
-      <c r="AF1" s="158"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="164"/>
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="164"/>
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="164"/>
+      <c r="AD1" s="164"/>
+      <c r="AE1" s="164"/>
+      <c r="AF1" s="164"/>
     </row>
     <row r="2" spans="1:32" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="158"/>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="158"/>
-      <c r="AB2" s="158"/>
-      <c r="AC2" s="158"/>
-      <c r="AD2" s="158"/>
-      <c r="AE2" s="158"/>
-      <c r="AF2" s="158"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="164"/>
+      <c r="S2" s="164"/>
+      <c r="T2" s="164"/>
+      <c r="U2" s="164"/>
+      <c r="V2" s="164"/>
+      <c r="W2" s="164"/>
+      <c r="X2" s="164"/>
+      <c r="Y2" s="164"/>
+      <c r="Z2" s="164"/>
+      <c r="AA2" s="164"/>
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="164"/>
+      <c r="AD2" s="164"/>
+      <c r="AE2" s="164"/>
+      <c r="AF2" s="164"/>
     </row>
     <row r="3" spans="1:32" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="159"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="159"/>
-      <c r="V3" s="159"/>
-      <c r="W3" s="159"/>
-      <c r="X3" s="159"/>
-      <c r="Y3" s="159"/>
-      <c r="Z3" s="159"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="159"/>
-      <c r="AC3" s="159"/>
-      <c r="AD3" s="159"/>
-      <c r="AE3" s="159"/>
-      <c r="AF3" s="159"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="165"/>
+      <c r="O3" s="165"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="165"/>
+      <c r="S3" s="165"/>
+      <c r="T3" s="165"/>
+      <c r="U3" s="165"/>
+      <c r="V3" s="165"/>
+      <c r="W3" s="165"/>
+      <c r="X3" s="165"/>
+      <c r="Y3" s="165"/>
+      <c r="Z3" s="165"/>
+      <c r="AA3" s="165"/>
+      <c r="AB3" s="165"/>
+      <c r="AC3" s="165"/>
+      <c r="AD3" s="165"/>
+      <c r="AE3" s="165"/>
+      <c r="AF3" s="165"/>
     </row>
     <row r="4" spans="1:32" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="163" t="s">
+      <c r="A4" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="155" t="s">
+      <c r="D4" s="158" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="167" t="s">
+      <c r="E4" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="167" t="s">
+      <c r="F4" s="159" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="154" t="s">
+      <c r="H4" s="161" t="s">
         <v>592</v>
       </c>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154" t="s">
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161" t="s">
         <v>593</v>
       </c>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154" t="s">
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161" t="s">
         <v>594</v>
       </c>
-      <c r="O4" s="154"/>
-      <c r="P4" s="154"/>
-      <c r="Q4" s="160" t="s">
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="166" t="s">
         <v>595</v>
       </c>
-      <c r="R4" s="161"/>
-      <c r="S4" s="162"/>
-      <c r="T4" s="154" t="s">
+      <c r="R4" s="167"/>
+      <c r="S4" s="168"/>
+      <c r="T4" s="161" t="s">
         <v>596</v>
       </c>
-      <c r="U4" s="154"/>
-      <c r="V4" s="154"/>
-      <c r="W4" s="160" t="s">
+      <c r="U4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="166" t="s">
         <v>597</v>
       </c>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="162"/>
-      <c r="Z4" s="154" t="s">
+      <c r="X4" s="167"/>
+      <c r="Y4" s="168"/>
+      <c r="Z4" s="161" t="s">
         <v>651</v>
       </c>
-      <c r="AA4" s="154"/>
-      <c r="AB4" s="154"/>
+      <c r="AA4" s="161"/>
+      <c r="AB4" s="161"/>
       <c r="AC4" s="151" t="s">
         <v>650</v>
       </c>
@@ -4212,12 +4212,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="164"/>
-      <c r="B5" s="166"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
+      <c r="A5" s="155"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
       <c r="G5" s="26"/>
       <c r="H5" s="13" t="s">
         <v>7</v>
@@ -4288,12 +4288,12 @@
       <c r="AF5" s="25"/>
     </row>
     <row r="6" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="164"/>
-      <c r="B6" s="166"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
+      <c r="A6" s="155"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
       <c r="G6" s="78" t="s">
         <v>2</v>
       </c>
@@ -4370,12 +4370,12 @@
       <c r="AF6" s="27"/>
     </row>
     <row r="7" spans="1:32" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="165"/>
-      <c r="B7" s="155"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
+      <c r="A7" s="156"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
       <c r="G7" s="28" t="s">
         <v>3</v>
       </c>
@@ -10223,11 +10223,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="T4:V4"/>
@@ -10239,6 +10234,11 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="Y8:Y68 AB8:AB68">
@@ -10335,170 +10335,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="79" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="169"/>
-      <c r="T1" s="169"/>
-      <c r="U1" s="169"/>
-      <c r="V1" s="169"/>
-      <c r="W1" s="169"/>
-      <c r="X1" s="169"/>
-      <c r="Y1" s="169"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="169"/>
-      <c r="AB1" s="169"/>
-      <c r="AC1" s="169"/>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="169"/>
-      <c r="AF1" s="169"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="171"/>
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="171"/>
     </row>
     <row r="2" spans="1:32" s="79" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="169"/>
-      <c r="T2" s="169"/>
-      <c r="U2" s="169"/>
-      <c r="V2" s="169"/>
-      <c r="W2" s="169"/>
-      <c r="X2" s="169"/>
-      <c r="Y2" s="169"/>
-      <c r="Z2" s="169"/>
-      <c r="AA2" s="169"/>
-      <c r="AB2" s="169"/>
-      <c r="AC2" s="169"/>
-      <c r="AD2" s="169"/>
-      <c r="AE2" s="169"/>
-      <c r="AF2" s="169"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="171"/>
+      <c r="AA2" s="171"/>
+      <c r="AB2" s="171"/>
+      <c r="AC2" s="171"/>
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="171"/>
+      <c r="AF2" s="171"/>
     </row>
     <row r="3" spans="1:32" s="79" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="171" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="169"/>
-      <c r="S3" s="169"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="169"/>
-      <c r="AA3" s="169"/>
-      <c r="AB3" s="169"/>
-      <c r="AC3" s="169"/>
-      <c r="AD3" s="169"/>
-      <c r="AE3" s="169"/>
-      <c r="AF3" s="169"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171"/>
+      <c r="N3" s="171"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="171"/>
+      <c r="T3" s="171"/>
+      <c r="U3" s="171"/>
+      <c r="V3" s="171"/>
+      <c r="W3" s="171"/>
+      <c r="X3" s="171"/>
+      <c r="Y3" s="171"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="171"/>
+      <c r="AB3" s="171"/>
+      <c r="AC3" s="171"/>
+      <c r="AD3" s="171"/>
+      <c r="AE3" s="171"/>
+      <c r="AF3" s="171"/>
     </row>
     <row r="4" spans="1:32" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="166" t="s">
+      <c r="C4" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="166" t="s">
+      <c r="D4" s="157" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="167" t="s">
+      <c r="E4" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="167" t="s">
+      <c r="F4" s="159" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="154" t="s">
+      <c r="H4" s="161" t="s">
         <v>642</v>
       </c>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154" t="s">
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161" t="s">
         <v>589</v>
       </c>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154" t="s">
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161" t="s">
         <v>602</v>
       </c>
-      <c r="O4" s="154"/>
-      <c r="P4" s="154"/>
-      <c r="Q4" s="154" t="s">
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161" t="s">
         <v>641</v>
       </c>
-      <c r="R4" s="154"/>
-      <c r="S4" s="154"/>
-      <c r="T4" s="154" t="s">
+      <c r="R4" s="161"/>
+      <c r="S4" s="161"/>
+      <c r="T4" s="161" t="s">
         <v>590</v>
       </c>
-      <c r="U4" s="154"/>
-      <c r="V4" s="154"/>
-      <c r="W4" s="154" t="s">
+      <c r="U4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161" t="s">
         <v>643</v>
       </c>
-      <c r="X4" s="154"/>
-      <c r="Y4" s="154"/>
-      <c r="Z4" s="154" t="s">
+      <c r="X4" s="161"/>
+      <c r="Y4" s="161"/>
+      <c r="Z4" s="161" t="s">
         <v>644</v>
       </c>
-      <c r="AA4" s="154"/>
-      <c r="AB4" s="154"/>
+      <c r="AA4" s="161"/>
+      <c r="AB4" s="161"/>
       <c r="AC4" s="145" t="s">
         <v>604</v>
       </c>
@@ -10513,12 +10513,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="166"/>
-      <c r="B5" s="166"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
+      <c r="A5" s="157"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
       <c r="G5" s="34"/>
       <c r="H5" s="11" t="s">
         <v>7</v>
@@ -10589,12 +10589,12 @@
       <c r="AF5" s="34"/>
     </row>
     <row r="6" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="166"/>
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
+      <c r="A6" s="157"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
       <c r="G6" s="36" t="s">
         <v>2</v>
       </c>
@@ -10671,12 +10671,12 @@
       <c r="AF6" s="52"/>
     </row>
     <row r="7" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="155"/>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
+      <c r="A7" s="158"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
       <c r="G7" s="37" t="s">
         <v>3</v>
       </c>
@@ -16056,21 +16056,16 @@
       <c r="AF64" s="14"/>
     </row>
     <row r="67" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="170" t="s">
+      <c r="B67" s="169" t="s">
         <v>640</v>
       </c>
-      <c r="C67" s="171"/>
-      <c r="D67" s="171"/>
-      <c r="E67" s="171"/>
-      <c r="F67" s="171"/>
+      <c r="C67" s="170"/>
+      <c r="D67" s="170"/>
+      <c r="E67" s="170"/>
+      <c r="F67" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A2:AF2"/>
     <mergeCell ref="A3:AF3"/>
@@ -16083,6 +16078,11 @@
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
   </mergeCells>
   <conditionalFormatting sqref="Q8:Q63">
     <cfRule type="cellIs" dxfId="52" priority="21" stopIfTrue="1" operator="lessThan">
@@ -16193,76 +16193,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="169"/>
-      <c r="T1" s="169"/>
-      <c r="U1" s="169"/>
-      <c r="V1" s="169"/>
-      <c r="W1" s="169"/>
-      <c r="X1" s="169"/>
-      <c r="Y1" s="169"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="169"/>
-      <c r="AB1" s="169"/>
-      <c r="AC1" s="169"/>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="169"/>
-      <c r="AF1" s="169"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="171"/>
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="171"/>
     </row>
     <row r="2" spans="1:32" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="169"/>
-      <c r="T2" s="169"/>
-      <c r="U2" s="169"/>
-      <c r="V2" s="169"/>
-      <c r="W2" s="169"/>
-      <c r="X2" s="169"/>
-      <c r="Y2" s="169"/>
-      <c r="Z2" s="169"/>
-      <c r="AA2" s="169"/>
-      <c r="AB2" s="169"/>
-      <c r="AC2" s="169"/>
-      <c r="AD2" s="169"/>
-      <c r="AE2" s="169"/>
-      <c r="AF2" s="169"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="171"/>
+      <c r="AA2" s="171"/>
+      <c r="AB2" s="171"/>
+      <c r="AC2" s="171"/>
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="171"/>
+      <c r="AF2" s="171"/>
     </row>
     <row r="3" spans="1:32" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="172" t="s">
@@ -16301,60 +16301,60 @@
       <c r="AF3" s="172"/>
     </row>
     <row r="4" spans="1:32" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="158" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="129"/>
-      <c r="D4" s="155" t="s">
+      <c r="D4" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="167" t="s">
+      <c r="E4" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="167" t="s">
+      <c r="F4" s="159" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="154" t="s">
+      <c r="H4" s="161" t="s">
         <v>592</v>
       </c>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154" t="s">
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161" t="s">
         <v>593</v>
       </c>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154" t="s">
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161" t="s">
         <v>648</v>
       </c>
-      <c r="O4" s="154"/>
-      <c r="P4" s="154"/>
-      <c r="Q4" s="160" t="s">
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="166" t="s">
         <v>595</v>
       </c>
-      <c r="R4" s="161"/>
-      <c r="S4" s="162"/>
-      <c r="T4" s="154" t="s">
+      <c r="R4" s="167"/>
+      <c r="S4" s="168"/>
+      <c r="T4" s="161" t="s">
         <v>596</v>
       </c>
-      <c r="U4" s="154"/>
-      <c r="V4" s="154"/>
-      <c r="W4" s="160" t="s">
+      <c r="U4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="166" t="s">
         <v>597</v>
       </c>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="162"/>
-      <c r="Z4" s="154" t="s">
+      <c r="X4" s="167"/>
+      <c r="Y4" s="168"/>
+      <c r="Z4" s="161" t="s">
         <v>610</v>
       </c>
-      <c r="AA4" s="154"/>
-      <c r="AB4" s="154"/>
+      <c r="AA4" s="161"/>
+      <c r="AB4" s="161"/>
       <c r="AC4" s="145" t="s">
         <v>605</v>
       </c>
@@ -16369,12 +16369,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="166"/>
-      <c r="B5" s="156"/>
+      <c r="A5" s="157"/>
+      <c r="B5" s="162"/>
       <c r="C5" s="130"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
       <c r="G5" s="82"/>
       <c r="H5" s="58" t="s">
         <v>7</v>
@@ -16445,12 +16445,12 @@
       <c r="AF5" s="25"/>
     </row>
     <row r="6" spans="1:32" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="166"/>
-      <c r="B6" s="156"/>
+      <c r="A6" s="157"/>
+      <c r="B6" s="162"/>
       <c r="C6" s="130"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
       <c r="G6" s="82" t="s">
         <v>2</v>
       </c>
@@ -16527,12 +16527,12 @@
       <c r="AF6" s="27"/>
     </row>
     <row r="7" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="155"/>
-      <c r="B7" s="157"/>
+      <c r="A7" s="158"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="131"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
       <c r="G7" s="83" t="s">
         <v>3</v>
       </c>
@@ -21745,170 +21745,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="173"/>
-      <c r="U1" s="173"/>
-      <c r="V1" s="173"/>
-      <c r="W1" s="173"/>
-      <c r="X1" s="173"/>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="173"/>
-      <c r="AB1" s="173"/>
-      <c r="AC1" s="173"/>
-      <c r="AD1" s="173"/>
-      <c r="AE1" s="173"/>
-      <c r="AF1" s="173"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="174"/>
+      <c r="O1" s="174"/>
+      <c r="P1" s="174"/>
+      <c r="Q1" s="174"/>
+      <c r="R1" s="174"/>
+      <c r="S1" s="174"/>
+      <c r="T1" s="174"/>
+      <c r="U1" s="174"/>
+      <c r="V1" s="174"/>
+      <c r="W1" s="174"/>
+      <c r="X1" s="174"/>
+      <c r="Y1" s="174"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="174"/>
+      <c r="AB1" s="174"/>
+      <c r="AC1" s="174"/>
+      <c r="AD1" s="174"/>
+      <c r="AE1" s="174"/>
+      <c r="AF1" s="174"/>
     </row>
     <row r="2" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="173"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="173"/>
-      <c r="U2" s="173"/>
-      <c r="V2" s="173"/>
-      <c r="W2" s="173"/>
-      <c r="X2" s="173"/>
-      <c r="Y2" s="173"/>
-      <c r="Z2" s="173"/>
-      <c r="AA2" s="173"/>
-      <c r="AB2" s="173"/>
-      <c r="AC2" s="173"/>
-      <c r="AD2" s="173"/>
-      <c r="AE2" s="173"/>
-      <c r="AF2" s="173"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="174"/>
+      <c r="Y2" s="174"/>
+      <c r="Z2" s="174"/>
+      <c r="AA2" s="174"/>
+      <c r="AB2" s="174"/>
+      <c r="AC2" s="174"/>
+      <c r="AD2" s="174"/>
+      <c r="AE2" s="174"/>
+      <c r="AF2" s="174"/>
     </row>
     <row r="3" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="175" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="174"/>
-      <c r="L3" s="174"/>
-      <c r="M3" s="174"/>
-      <c r="N3" s="174"/>
-      <c r="O3" s="174"/>
-      <c r="P3" s="174"/>
-      <c r="Q3" s="174"/>
-      <c r="R3" s="174"/>
-      <c r="S3" s="174"/>
-      <c r="T3" s="174"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
-      <c r="W3" s="174"/>
-      <c r="X3" s="174"/>
-      <c r="Y3" s="174"/>
-      <c r="Z3" s="174"/>
-      <c r="AA3" s="174"/>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="174"/>
-      <c r="AD3" s="174"/>
-      <c r="AE3" s="174"/>
-      <c r="AF3" s="174"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="175"/>
+      <c r="S3" s="175"/>
+      <c r="T3" s="175"/>
+      <c r="U3" s="175"/>
+      <c r="V3" s="175"/>
+      <c r="W3" s="175"/>
+      <c r="X3" s="175"/>
+      <c r="Y3" s="175"/>
+      <c r="Z3" s="175"/>
+      <c r="AA3" s="175"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="175"/>
+      <c r="AD3" s="175"/>
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="175"/>
     </row>
     <row r="4" spans="1:32" ht="147.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="166" t="s">
+      <c r="C4" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="166" t="s">
+      <c r="D4" s="157" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="167" t="s">
+      <c r="E4" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="167" t="s">
+      <c r="F4" s="159" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="154" t="s">
+      <c r="H4" s="161" t="s">
         <v>642</v>
       </c>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154" t="s">
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161" t="s">
         <v>589</v>
       </c>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154" t="s">
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161" t="s">
         <v>602</v>
       </c>
-      <c r="O4" s="154"/>
-      <c r="P4" s="154"/>
-      <c r="Q4" s="154" t="s">
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161" t="s">
         <v>645</v>
       </c>
-      <c r="R4" s="154"/>
-      <c r="S4" s="154"/>
-      <c r="T4" s="154" t="s">
+      <c r="R4" s="161"/>
+      <c r="S4" s="161"/>
+      <c r="T4" s="161" t="s">
         <v>590</v>
       </c>
-      <c r="U4" s="154"/>
-      <c r="V4" s="154"/>
-      <c r="W4" s="154" t="s">
+      <c r="U4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161" t="s">
         <v>649</v>
       </c>
-      <c r="X4" s="154"/>
-      <c r="Y4" s="154"/>
-      <c r="Z4" s="154" t="s">
+      <c r="X4" s="161"/>
+      <c r="Y4" s="161"/>
+      <c r="Z4" s="161" t="s">
         <v>591</v>
       </c>
-      <c r="AA4" s="154"/>
-      <c r="AB4" s="154"/>
+      <c r="AA4" s="161"/>
+      <c r="AB4" s="161"/>
       <c r="AC4" s="145" t="s">
         <v>604</v>
       </c>
@@ -21923,12 +21923,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="166"/>
-      <c r="B5" s="166"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
+      <c r="A5" s="157"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
       <c r="G5" s="25"/>
       <c r="H5" s="11" t="s">
         <v>7</v>
@@ -21999,12 +21999,12 @@
       <c r="AF5" s="25"/>
     </row>
     <row r="6" spans="1:32" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="166"/>
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
+      <c r="A6" s="157"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
       <c r="G6" s="25" t="s">
         <v>2</v>
       </c>
@@ -22081,12 +22081,12 @@
       <c r="AF6" s="27"/>
     </row>
     <row r="7" spans="1:32" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="155"/>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
+      <c r="A7" s="158"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
       <c r="G7" s="41" t="s">
         <v>3</v>
       </c>
@@ -27913,16 +27913,23 @@
       <c r="AF68" s="117"/>
     </row>
     <row r="70" spans="1:32" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="175" t="s">
+      <c r="B70" s="173" t="s">
         <v>640</v>
       </c>
-      <c r="C70" s="175"/>
-      <c r="D70" s="175"/>
-      <c r="E70" s="175"/>
-      <c r="F70" s="175"/>
+      <c r="C70" s="173"/>
+      <c r="D70" s="173"/>
+      <c r="E70" s="173"/>
+      <c r="F70" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:AF2"/>
+    <mergeCell ref="A3:AF3"/>
     <mergeCell ref="B70:F70"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="Z4:AB4"/>
@@ -27933,13 +27940,6 @@
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="C4:C7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:AF2"/>
-    <mergeCell ref="A3:AF3"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J68 M8:M68 P8:P68">
     <cfRule type="cellIs" dxfId="27" priority="15" stopIfTrue="1" operator="lessThan">
@@ -28017,75 +28017,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
-      <c r="O1" s="158"/>
-      <c r="P1" s="158"/>
-      <c r="Q1" s="158"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="158"/>
-      <c r="T1" s="158"/>
-      <c r="U1" s="158"/>
-      <c r="V1" s="158"/>
-      <c r="W1" s="158"/>
-      <c r="X1" s="158"/>
-      <c r="Y1" s="158"/>
-      <c r="Z1" s="158"/>
-      <c r="AA1" s="158"/>
-      <c r="AB1" s="158"/>
-      <c r="AC1" s="158"/>
-      <c r="AD1" s="158"/>
-      <c r="AE1" s="158"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="164"/>
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="164"/>
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="164"/>
+      <c r="AD1" s="164"/>
+      <c r="AE1" s="164"/>
       <c r="AF1" s="10"/>
     </row>
     <row r="2" spans="1:32" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="158"/>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="158"/>
-      <c r="AB2" s="158"/>
-      <c r="AC2" s="158"/>
-      <c r="AD2" s="158"/>
-      <c r="AE2" s="158"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="164"/>
+      <c r="S2" s="164"/>
+      <c r="T2" s="164"/>
+      <c r="U2" s="164"/>
+      <c r="V2" s="164"/>
+      <c r="W2" s="164"/>
+      <c r="X2" s="164"/>
+      <c r="Y2" s="164"/>
+      <c r="Z2" s="164"/>
+      <c r="AA2" s="164"/>
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="164"/>
+      <c r="AD2" s="164"/>
+      <c r="AE2" s="164"/>
       <c r="AF2" s="10"/>
     </row>
     <row r="3" spans="1:32" ht="71" customHeight="1" x14ac:dyDescent="0.25">
@@ -28125,62 +28125,62 @@
       <c r="AF3" s="10"/>
     </row>
     <row r="4" spans="1:32" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="176" t="s">
+      <c r="B4" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="176" t="s">
+      <c r="C4" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="176" t="s">
+      <c r="D4" s="177" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="177" t="s">
+      <c r="E4" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="177" t="s">
+      <c r="F4" s="178" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="154" t="s">
+      <c r="H4" s="161" t="s">
         <v>592</v>
       </c>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154" t="s">
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161" t="s">
         <v>593</v>
       </c>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154" t="s">
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161" t="s">
         <v>594</v>
       </c>
-      <c r="O4" s="154"/>
-      <c r="P4" s="154"/>
-      <c r="Q4" s="160" t="s">
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="166" t="s">
         <v>595</v>
       </c>
-      <c r="R4" s="161"/>
-      <c r="S4" s="162"/>
-      <c r="T4" s="154" t="s">
+      <c r="R4" s="167"/>
+      <c r="S4" s="168"/>
+      <c r="T4" s="161" t="s">
         <v>596</v>
       </c>
-      <c r="U4" s="154"/>
-      <c r="V4" s="154"/>
-      <c r="W4" s="160" t="s">
+      <c r="U4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="166" t="s">
         <v>597</v>
       </c>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="162"/>
-      <c r="Z4" s="154" t="s">
+      <c r="X4" s="167"/>
+      <c r="Y4" s="168"/>
+      <c r="Z4" s="161" t="s">
         <v>610</v>
       </c>
-      <c r="AA4" s="154"/>
-      <c r="AB4" s="154"/>
+      <c r="AA4" s="161"/>
+      <c r="AB4" s="161"/>
       <c r="AC4" s="151" t="s">
         <v>653</v>
       </c>
@@ -28195,12 +28195,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="176"/>
-      <c r="B5" s="176"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="177"/>
+      <c r="A5" s="177"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
       <c r="G5" s="4"/>
       <c r="H5" s="58" t="s">
         <v>7</v>
@@ -28271,12 +28271,12 @@
       <c r="AF5" s="75"/>
     </row>
     <row r="6" spans="1:32" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="176"/>
-      <c r="B6" s="176"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
+      <c r="A6" s="177"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
       <c r="G6" s="5" t="s">
         <v>2</v>
       </c>
@@ -28353,12 +28353,12 @@
       <c r="AF6" s="76"/>
     </row>
     <row r="7" spans="1:32" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="163"/>
-      <c r="B7" s="163"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
+      <c r="A7" s="154"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
       <c r="G7" s="8" t="s">
         <v>3</v>
       </c>
@@ -28516,23 +28516,18 @@
       <c r="W10" s="1"/>
     </row>
     <row r="12" spans="1:32" s="152" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="179" t="s">
+      <c r="C12" s="176" t="s">
         <v>652</v>
       </c>
-      <c r="D12" s="179"/>
-      <c r="E12" s="179"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="179"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="179"/>
+      <c r="D12" s="176"/>
+      <c r="E12" s="176"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="176"/>
+      <c r="I12" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="A2:AE2"/>
     <mergeCell ref="A3:AE3"/>
@@ -28545,6 +28540,11 @@
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="T4:V4"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
   </mergeCells>
   <conditionalFormatting sqref="Y8 AB8">
     <cfRule type="cellIs" dxfId="18" priority="20" stopIfTrue="1" operator="lessThan">
@@ -28584,7 +28584,7 @@
   <dimension ref="A1:AF64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D25" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AC32" sqref="AC32"/>
+      <selection activeCell="AD26" sqref="AD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -28609,170 +28609,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
-      <c r="O1" s="158"/>
-      <c r="P1" s="158"/>
-      <c r="Q1" s="158"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="158"/>
-      <c r="T1" s="158"/>
-      <c r="U1" s="158"/>
-      <c r="V1" s="158"/>
-      <c r="W1" s="158"/>
-      <c r="X1" s="158"/>
-      <c r="Y1" s="158"/>
-      <c r="Z1" s="158"/>
-      <c r="AA1" s="158"/>
-      <c r="AB1" s="158"/>
-      <c r="AC1" s="158"/>
-      <c r="AD1" s="158"/>
-      <c r="AE1" s="158"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="164"/>
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="164"/>
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="164"/>
+      <c r="AD1" s="164"/>
+      <c r="AE1" s="164"/>
       <c r="AF1" s="10"/>
     </row>
     <row r="2" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="158"/>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="158"/>
-      <c r="AB2" s="158"/>
-      <c r="AC2" s="158"/>
-      <c r="AD2" s="158"/>
-      <c r="AE2" s="158"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="164"/>
+      <c r="S2" s="164"/>
+      <c r="T2" s="164"/>
+      <c r="U2" s="164"/>
+      <c r="V2" s="164"/>
+      <c r="W2" s="164"/>
+      <c r="X2" s="164"/>
+      <c r="Y2" s="164"/>
+      <c r="Z2" s="164"/>
+      <c r="AA2" s="164"/>
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="164"/>
+      <c r="AD2" s="164"/>
+      <c r="AE2" s="164"/>
       <c r="AF2" s="10"/>
     </row>
     <row r="3" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="158"/>
-      <c r="Q3" s="158"/>
-      <c r="R3" s="158"/>
-      <c r="S3" s="158"/>
-      <c r="T3" s="158"/>
-      <c r="U3" s="158"/>
-      <c r="V3" s="158"/>
-      <c r="W3" s="158"/>
-      <c r="X3" s="158"/>
-      <c r="Y3" s="158"/>
-      <c r="Z3" s="158"/>
-      <c r="AA3" s="158"/>
-      <c r="AB3" s="158"/>
-      <c r="AC3" s="158"/>
-      <c r="AD3" s="158"/>
-      <c r="AE3" s="158"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="164"/>
+      <c r="P3" s="164"/>
+      <c r="Q3" s="164"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="164"/>
+      <c r="T3" s="164"/>
+      <c r="U3" s="164"/>
+      <c r="V3" s="164"/>
+      <c r="W3" s="164"/>
+      <c r="X3" s="164"/>
+      <c r="Y3" s="164"/>
+      <c r="Z3" s="164"/>
+      <c r="AA3" s="164"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="164"/>
+      <c r="AD3" s="164"/>
+      <c r="AE3" s="164"/>
       <c r="AF3" s="10"/>
     </row>
     <row r="4" spans="1:32" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="176" t="s">
+      <c r="B4" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="176" t="s">
+      <c r="C4" s="177" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="176" t="s">
+      <c r="D4" s="177" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="177" t="s">
+      <c r="E4" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="177" t="s">
+      <c r="F4" s="178" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="154" t="s">
+      <c r="H4" s="161" t="s">
         <v>635</v>
       </c>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154" t="s">
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161" t="s">
         <v>589</v>
       </c>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154" t="s">
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161" t="s">
         <v>602</v>
       </c>
-      <c r="O4" s="154"/>
-      <c r="P4" s="154"/>
-      <c r="Q4" s="154" t="s">
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161" t="s">
         <v>633</v>
       </c>
-      <c r="R4" s="154"/>
-      <c r="S4" s="154"/>
-      <c r="T4" s="154" t="s">
+      <c r="R4" s="161"/>
+      <c r="S4" s="161"/>
+      <c r="T4" s="161" t="s">
         <v>590</v>
       </c>
-      <c r="U4" s="154"/>
-      <c r="V4" s="154"/>
-      <c r="W4" s="154" t="s">
+      <c r="U4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161" t="s">
         <v>636</v>
       </c>
-      <c r="X4" s="154"/>
-      <c r="Y4" s="154"/>
-      <c r="Z4" s="154" t="s">
+      <c r="X4" s="161"/>
+      <c r="Y4" s="161"/>
+      <c r="Z4" s="161" t="s">
         <v>634</v>
       </c>
-      <c r="AA4" s="154"/>
-      <c r="AB4" s="154"/>
+      <c r="AA4" s="161"/>
+      <c r="AB4" s="161"/>
       <c r="AC4" s="148" t="s">
         <v>637</v>
       </c>
@@ -28787,12 +28787,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="176"/>
-      <c r="B5" s="176"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="177"/>
+      <c r="A5" s="177"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
       <c r="G5" s="7"/>
       <c r="H5" s="11" t="s">
         <v>7</v>
@@ -28863,12 +28863,12 @@
       <c r="AF5" s="51"/>
     </row>
     <row r="6" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="176"/>
-      <c r="B6" s="176"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
+      <c r="A6" s="177"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
       <c r="G6" s="5" t="s">
         <v>2</v>
       </c>
@@ -28945,12 +28945,12 @@
       <c r="AF6" s="39"/>
     </row>
     <row r="7" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="176"/>
-      <c r="B7" s="176"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
+      <c r="A7" s="177"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
       <c r="G7" s="8" t="s">
         <v>3</v>
       </c>
@@ -30730,23 +30730,23 @@
         <v>90</v>
       </c>
       <c r="G26" s="50"/>
-      <c r="H26" s="95" t="s">
-        <v>600</v>
+      <c r="H26" s="95">
+        <v>75</v>
       </c>
       <c r="I26" s="95">
         <v>29</v>
       </c>
       <c r="J26" s="98">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="K26" s="95">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="L26" s="95">
         <v>32</v>
       </c>
       <c r="M26" s="98">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="N26" s="95">
         <v>47</v>
@@ -30797,7 +30797,7 @@
         <v>45</v>
       </c>
       <c r="AD26" s="98">
-        <v>366</v>
+        <v>483</v>
       </c>
       <c r="AE26" s="125" t="s">
         <v>606</v>
@@ -34030,14 +34030,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="C4:C7"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="A2:AE2"/>
     <mergeCell ref="A3:AE3"/>
@@ -34047,6 +34039,14 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="C4:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J60">
     <cfRule type="cellIs" dxfId="13" priority="15" stopIfTrue="1" operator="lessThan">
